--- a/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
+++ b/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
@@ -5,20 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\SemEval-14\Restaurants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815AF8D7-A3EA-4CB5-8E95-4B5D7928C40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A4D4D1-2291-43CA-8927-D05409BFC617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="162">
   <si>
     <t>metric</t>
   </si>
@@ -523,6 +520,9 @@
   </si>
   <si>
     <t>pr1</t>
+  </si>
+  <si>
+    <t>cat</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1832,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$28</c:f>
+              <c:f>Sheet2!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1909,7 +1909,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$30:$L$30</c:f>
+              <c:f>Sheet2!$B$33:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2038,7 +2038,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$24:$L$24</c:f>
+              <c:f>Sheet2!$B$27:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2167,7 +2167,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$27:$L$27</c:f>
+              <c:f>Sheet2!$B$30:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2294,7 +2294,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$33:$L$33</c:f>
+              <c:f>Sheet2!$B$36:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2423,7 +2423,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$36:$L$36</c:f>
+              <c:f>Sheet2!$B$39:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2550,7 +2550,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$39:$L$39</c:f>
+              <c:f>Sheet2!$B$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4008,16 +4008,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12327</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>113180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409239</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88527</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>588533</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>189380</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4046,16 +4046,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>739588</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>353209</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>173915</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4083,515 +4083,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1">
-            <v>0</v>
-          </cell>
-          <cell r="C1">
-            <v>0.1</v>
-          </cell>
-          <cell r="D1">
-            <v>0.2</v>
-          </cell>
-          <cell r="E1">
-            <v>0.3</v>
-          </cell>
-          <cell r="F1">
-            <v>0.4</v>
-          </cell>
-          <cell r="G1">
-            <v>0.5</v>
-          </cell>
-          <cell r="H1">
-            <v>0.6</v>
-          </cell>
-          <cell r="I1">
-            <v>0.7</v>
-          </cell>
-          <cell r="J1">
-            <v>0.8</v>
-          </cell>
-          <cell r="K1">
-            <v>0.9</v>
-          </cell>
-          <cell r="L1">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>btm</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>6.3392857142856807E-2</v>
-          </cell>
-          <cell r="C4">
-            <v>5.8035714285713497E-2</v>
-          </cell>
-          <cell r="D4">
-            <v>4.9999999999999711E-2</v>
-          </cell>
-          <cell r="E4">
-            <v>4.1071428571428197E-2</v>
-          </cell>
-          <cell r="F4">
-            <v>4.0178571428571404E-2</v>
-          </cell>
-          <cell r="G4">
-            <v>3.2142857142857105E-2</v>
-          </cell>
-          <cell r="H4">
-            <v>2.4107142857142792E-2</v>
-          </cell>
-          <cell r="I4">
-            <v>2.2321428571428603E-2</v>
-          </cell>
-          <cell r="J4">
-            <v>2.4107142857142799E-2</v>
-          </cell>
-          <cell r="K4">
-            <v>1.9642857142857101E-2</v>
-          </cell>
-          <cell r="L4">
-            <v>9.821428571428599E-3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>ctm</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.13660714285714251</v>
-          </cell>
-          <cell r="C7">
-            <v>0.1232142857142853</v>
-          </cell>
-          <cell r="D7">
-            <v>0.10714285714285701</v>
-          </cell>
-          <cell r="E7">
-            <v>0.10267857142857101</v>
-          </cell>
-          <cell r="F7">
-            <v>9.2857142857142597E-2</v>
-          </cell>
-          <cell r="G7">
-            <v>9.0178571428570803E-2</v>
-          </cell>
-          <cell r="H7">
-            <v>8.5714285714285493E-2</v>
-          </cell>
-          <cell r="I7">
-            <v>6.8749999999999992E-2</v>
-          </cell>
-          <cell r="J7">
-            <v>5.9821428571428595E-2</v>
-          </cell>
-          <cell r="K7">
-            <v>5.0892857142857094E-2</v>
-          </cell>
-          <cell r="L7">
-            <v>4.64285714285715E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>loclda</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>-3.5714285714290028E-3</v>
-          </cell>
-          <cell r="E10">
-            <v>-4.4642857142857123E-3</v>
-          </cell>
-          <cell r="F10">
-            <v>3.5714285714285032E-3</v>
-          </cell>
-          <cell r="G10">
-            <v>4.4642857142858094E-3</v>
-          </cell>
-          <cell r="H10">
-            <v>-8.9285714285713969E-3</v>
-          </cell>
-          <cell r="I10">
-            <v>-4.4642857142856984E-3</v>
-          </cell>
-          <cell r="J10">
-            <v>-8.9285714285709805E-4</v>
-          </cell>
-          <cell r="K10">
-            <v>-8.9285714285713969E-3</v>
-          </cell>
-          <cell r="L10">
-            <v>-3.5714285714286004E-3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>ctm-z</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>1.7857142857142898E-2</v>
-          </cell>
-          <cell r="C13">
-            <v>1.3392857142857201E-2</v>
-          </cell>
-          <cell r="D13">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-          <cell r="E13">
-            <v>1.3392857142857099E-2</v>
-          </cell>
-          <cell r="F13">
-            <v>1.4285714285714301E-2</v>
-          </cell>
-          <cell r="G13">
-            <v>1.4285714285714301E-2</v>
-          </cell>
-          <cell r="H13">
-            <v>1.6964285714285703E-2</v>
-          </cell>
-          <cell r="I13">
-            <v>1.1607142857142799E-2</v>
-          </cell>
-          <cell r="J13">
-            <v>5.3571428571429006E-3</v>
-          </cell>
-          <cell r="K13">
-            <v>1.1607142857142901E-2</v>
-          </cell>
-          <cell r="L13">
-            <v>5.3571428571427999E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>neurallda</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>1.7857142857143002E-3</v>
-          </cell>
-          <cell r="C16">
-            <v>1.7857142857143002E-3</v>
-          </cell>
-          <cell r="D16">
-            <v>6.2499999999998997E-3</v>
-          </cell>
-          <cell r="E16">
-            <v>4.4642857142857002E-3</v>
-          </cell>
-          <cell r="F16">
-            <v>3.5714285714286004E-3</v>
-          </cell>
-          <cell r="G16">
-            <v>1.7857142857143002E-3</v>
-          </cell>
-          <cell r="H16">
-            <v>8.9285714285709979E-4</v>
-          </cell>
-          <cell r="I16">
-            <v>-2.6785714285714E-3</v>
-          </cell>
-          <cell r="J16">
-            <v>4.4642857142857002E-3</v>
-          </cell>
-          <cell r="K16">
-            <v>-2.6785714285715006E-3</v>
-          </cell>
-          <cell r="L16">
-            <v>8.9285714285709979E-4</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>random</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0</v>
-          </cell>
-          <cell r="C19">
-            <v>-1.7857142857142E-3</v>
-          </cell>
-          <cell r="D19">
-            <v>0</v>
-          </cell>
-          <cell r="E19">
-            <v>-8.928571428571E-4</v>
-          </cell>
-          <cell r="F19">
-            <v>0</v>
-          </cell>
-          <cell r="G19">
-            <v>1.7857142857143E-3</v>
-          </cell>
-          <cell r="H19">
-            <v>-8.928571428571E-4</v>
-          </cell>
-          <cell r="I19">
-            <v>0</v>
-          </cell>
-          <cell r="J19">
-            <v>0</v>
-          </cell>
-          <cell r="K19">
-            <v>-8.928571428571E-4</v>
-          </cell>
-          <cell r="L19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>4.3932764842356198E-2</v>
-          </cell>
-          <cell r="C24">
-            <v>3.7309155689946194E-2</v>
-          </cell>
-          <cell r="D24">
-            <v>3.5339956905483E-2</v>
-          </cell>
-          <cell r="E24">
-            <v>2.8883582186583989E-2</v>
-          </cell>
-          <cell r="F24">
-            <v>2.85633509136244E-2</v>
-          </cell>
-          <cell r="G24">
-            <v>2.5376953463289303E-2</v>
-          </cell>
-          <cell r="H24">
-            <v>1.9241330692253394E-2</v>
-          </cell>
-          <cell r="I24">
-            <v>1.6312426624860203E-2</v>
-          </cell>
-          <cell r="J24">
-            <v>1.6044051108782896E-2</v>
-          </cell>
-          <cell r="K24">
-            <v>1.3093102191770997E-2</v>
-          </cell>
-          <cell r="L24">
-            <v>7.0109121653071024E-3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>0.1377644747089006</v>
-          </cell>
-          <cell r="C27">
-            <v>0.12583029985751412</v>
-          </cell>
-          <cell r="D27">
-            <v>0.1166160224030808</v>
-          </cell>
-          <cell r="E27">
-            <v>0.11444301613536001</v>
-          </cell>
-          <cell r="F27">
-            <v>9.6637831712298922E-2</v>
-          </cell>
-          <cell r="G27">
-            <v>9.2615619837142102E-2</v>
-          </cell>
-          <cell r="H27">
-            <v>8.6392884870021197E-2</v>
-          </cell>
-          <cell r="I27">
-            <v>7.7692906954160604E-2</v>
-          </cell>
-          <cell r="J27">
-            <v>7.1424813829629397E-2</v>
-          </cell>
-          <cell r="K27">
-            <v>5.9356608288904891E-2</v>
-          </cell>
-          <cell r="L27">
-            <v>5.011207087803439E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>loclda</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>2.7644643871889973E-3</v>
-          </cell>
-          <cell r="C30">
-            <v>5.6275313795859927E-3</v>
-          </cell>
-          <cell r="D30">
-            <v>9.728394238130017E-4</v>
-          </cell>
-          <cell r="E30">
-            <v>7.0825654123300719E-4</v>
-          </cell>
-          <cell r="F30">
-            <v>6.306787583022902E-3</v>
-          </cell>
-          <cell r="G30">
-            <v>5.8346590760467998E-3</v>
-          </cell>
-          <cell r="H30">
-            <v>-7.1971596042890024E-3</v>
-          </cell>
-          <cell r="I30">
-            <v>4.2755745880977969E-3</v>
-          </cell>
-          <cell r="J30">
-            <v>2.7947730784050884E-3</v>
-          </cell>
-          <cell r="K30">
-            <v>-3.3205558635846025E-3</v>
-          </cell>
-          <cell r="L30">
-            <v>1.9397914330066962E-3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>2.2939855568167199E-2</v>
-          </cell>
-          <cell r="C33">
-            <v>1.8486971643020201E-2</v>
-          </cell>
-          <cell r="D33">
-            <v>2.69372129374192E-2</v>
-          </cell>
-          <cell r="E33">
-            <v>1.7961961123800899E-2</v>
-          </cell>
-          <cell r="F33">
-            <v>1.56948242418E-2</v>
-          </cell>
-          <cell r="G33">
-            <v>2.01375289234638E-2</v>
-          </cell>
-          <cell r="H33">
-            <v>1.79849725922714E-2</v>
-          </cell>
-          <cell r="I33">
-            <v>1.53447916623026E-2</v>
-          </cell>
-          <cell r="J33">
-            <v>1.38685188147262E-2</v>
-          </cell>
-          <cell r="K33">
-            <v>1.23050926075557E-2</v>
-          </cell>
-          <cell r="L33">
-            <v>8.0922371243753004E-3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>-2.4678051225510995E-3</v>
-          </cell>
-          <cell r="C36">
-            <v>-5.2700967728279945E-4</v>
-          </cell>
-          <cell r="D36">
-            <v>4.6130979092849998E-3</v>
-          </cell>
-          <cell r="E36">
-            <v>-1.6080208282280052E-4</v>
-          </cell>
-          <cell r="F36">
-            <v>-1.9537053265180002E-3</v>
-          </cell>
-          <cell r="G36">
-            <v>-1.2258318517079959E-4</v>
-          </cell>
-          <cell r="H36">
-            <v>-3.6503856791630998E-3</v>
-          </cell>
-          <cell r="I36">
-            <v>-6.7337665639593987E-3</v>
-          </cell>
-          <cell r="J36">
-            <v>-1.7240835206167992E-3</v>
-          </cell>
-          <cell r="K36">
-            <v>-5.5993630111787008E-3</v>
-          </cell>
-          <cell r="L36">
-            <v>-1.2025996071910999E-3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>1.304181695024E-4</v>
-          </cell>
-          <cell r="C39">
-            <v>-2.0883380535027E-3</v>
-          </cell>
-          <cell r="D39">
-            <v>8.1045443096999976E-5</v>
-          </cell>
-          <cell r="E39">
-            <v>-1.0288641288172999E-3</v>
-          </cell>
-          <cell r="F39">
-            <v>-5.8004919148679996E-4</v>
-          </cell>
-          <cell r="G39">
-            <v>2.3819796794977001E-3</v>
-          </cell>
-          <cell r="H39">
-            <v>-3.1942120560230001E-4</v>
-          </cell>
-          <cell r="I39">
-            <v>-7.1672794518929999E-4</v>
-          </cell>
-          <cell r="J39">
-            <v>-3.3545033863780003E-4</v>
-          </cell>
-          <cell r="K39">
-            <v>-2.0699469626161999E-3</v>
-          </cell>
-          <cell r="L39">
-            <v>-5.7755516347800001E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13857,10 +13348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FFB291-E4F5-4E4E-B884-4FDFA1C7897B}">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14773,17 +14264,42 @@
       <c r="W19"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
+      <c r="A20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20">
+        <v>0.62920353982300803</v>
+      </c>
+      <c r="C20">
+        <v>0.53982300884955703</v>
+      </c>
+      <c r="D20">
+        <v>0.53008849557522097</v>
+      </c>
+      <c r="E20">
+        <v>0.45132743362831801</v>
+      </c>
+      <c r="F20">
+        <v>0.39026548672566302</v>
+      </c>
+      <c r="G20">
+        <v>0.34955752212389302</v>
+      </c>
+      <c r="H20">
+        <v>0.238938053097345</v>
+      </c>
+      <c r="I20">
+        <v>0.19380530973451299</v>
+      </c>
+      <c r="J20">
+        <v>0.15752212389380499</v>
+      </c>
+      <c r="K20">
+        <v>5.7522123893805302E-2</v>
+      </c>
+      <c r="L20">
+        <v>1.7699115044247E-3</v>
+      </c>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
@@ -14798,40 +14314,40 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.623008849557522</v>
       </c>
       <c r="C21">
-        <v>0.1</v>
+        <v>0.56548672566371605</v>
       </c>
       <c r="D21">
-        <v>0.2</v>
+        <v>0.50619469026548602</v>
       </c>
       <c r="E21">
-        <v>0.3</v>
+        <v>0.50530973451327399</v>
       </c>
       <c r="F21">
-        <v>0.4</v>
+        <v>0.376991150442477</v>
       </c>
       <c r="G21">
-        <v>0.5</v>
+        <v>0.36017699115044199</v>
       </c>
       <c r="H21">
-        <v>0.6</v>
+        <v>0.30796460176991097</v>
       </c>
       <c r="I21">
-        <v>0.7</v>
+        <v>0.25398230088495499</v>
       </c>
       <c r="J21">
-        <v>0.8</v>
+        <v>0.224778761061946</v>
       </c>
       <c r="K21">
-        <v>0.9</v>
+        <v>0.15221238938053</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.10353982300884899</v>
       </c>
       <c r="M21"/>
       <c r="N21"/>
@@ -14846,125 +14362,122 @@
       <c r="W21"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="B22">
-        <v>0.213522340781124</v>
+        <f>B21-B20</f>
+        <v>-6.1946902654860247E-3</v>
       </c>
       <c r="C22">
-        <v>0.211542632716479</v>
+        <f t="shared" ref="C22:L22" si="6">C21-C20</f>
+        <v>2.5663716814159021E-2</v>
       </c>
       <c r="D22">
-        <v>0.20578170649824901</v>
+        <f t="shared" si="6"/>
+        <v>-2.389380530973495E-2</v>
       </c>
       <c r="E22">
-        <v>0.20312999760262199</v>
+        <f t="shared" si="6"/>
+        <v>5.398230088495598E-2</v>
       </c>
       <c r="F22">
-        <v>0.20442743301045899</v>
+        <f t="shared" si="6"/>
+        <v>-1.3274336283186028E-2</v>
       </c>
       <c r="G22">
-        <v>0.19828403033491099</v>
+        <f t="shared" si="6"/>
+        <v>1.0619469026548978E-2</v>
       </c>
       <c r="H22">
-        <v>0.19825541654755999</v>
+        <f t="shared" si="6"/>
+        <v>6.9026548672565968E-2</v>
       </c>
       <c r="I22">
-        <v>0.194248687576557</v>
+        <f t="shared" si="6"/>
+        <v>6.0176991150442005E-2</v>
       </c>
       <c r="J22">
-        <v>0.18784159962861499</v>
+        <f t="shared" si="6"/>
+        <v>6.7256637168141009E-2</v>
       </c>
       <c r="K22">
-        <v>0.18648095578562199</v>
+        <f t="shared" si="6"/>
+        <v>9.4690265486724698E-2</v>
       </c>
       <c r="L22">
-        <v>0.18354687232057801</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0.1017699115044243</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23">
-        <v>0.19278137764572501</v>
-      </c>
-      <c r="C23">
-        <v>0.187109983488115</v>
-      </c>
-      <c r="D23">
-        <v>0.18320866441796599</v>
-      </c>
-      <c r="E23">
-        <v>0.176335606441124</v>
-      </c>
-      <c r="F23">
-        <v>0.172273341715209</v>
-      </c>
-      <c r="G23">
-        <v>0.164304511902467</v>
-      </c>
-      <c r="H23">
-        <v>0.15484100578967799</v>
-      </c>
-      <c r="I23">
-        <v>0.15347110703223599</v>
-      </c>
-      <c r="J23">
-        <v>0.14351969731483299</v>
-      </c>
-      <c r="K23">
-        <v>0.14431599406107501</v>
-      </c>
-      <c r="L23">
-        <v>0.13564732230596499</v>
-      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B24">
-        <f>B23-B22</f>
-        <v>-2.0740963135398999E-2</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:L24" si="6">C23-C22</f>
-        <v>-2.4432649228363995E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="6"/>
-        <v>-2.2573042080283018E-2</v>
+        <v>0.2</v>
       </c>
       <c r="E24">
-        <f t="shared" si="6"/>
-        <v>-2.6794391161497982E-2</v>
+        <v>0.3</v>
       </c>
       <c r="F24">
-        <f t="shared" si="6"/>
-        <v>-3.2154091295249987E-2</v>
+        <v>0.4</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
-        <v>-3.3979518432443984E-2</v>
+        <v>0.5</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
-        <v>-4.3414410757881994E-2</v>
+        <v>0.6</v>
       </c>
       <c r="I24">
-        <f t="shared" si="6"/>
-        <v>-4.0777580544321013E-2</v>
+        <v>0.7</v>
       </c>
       <c r="J24">
-        <f t="shared" si="6"/>
-        <v>-4.4321902313781997E-2</v>
+        <v>0.8</v>
       </c>
       <c r="K24">
-        <f t="shared" si="6"/>
-        <v>-4.2164961724546979E-2</v>
+        <v>0.9</v>
       </c>
       <c r="L24">
-        <f t="shared" si="6"/>
-        <v>-4.7899550014613018E-2</v>
+        <v>1</v>
       </c>
       <c r="M24"/>
       <c r="N24"/>
@@ -14980,40 +14493,40 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25">
-        <v>6.13298755408202E-2</v>
+        <v>0.213522340781124</v>
       </c>
       <c r="C25">
-        <v>4.6831690045251097E-2</v>
+        <v>0.211542632716479</v>
       </c>
       <c r="D25">
-        <v>3.7724229337277003E-2</v>
+        <v>0.20578170649824901</v>
       </c>
       <c r="E25">
-        <v>3.3474356129871798E-2</v>
+        <v>0.20312999760262199</v>
       </c>
       <c r="F25">
-        <v>4.0089493462535403E-2</v>
+        <v>0.20442743301045899</v>
       </c>
       <c r="G25">
-        <v>3.4104640950101503E-2</v>
+        <v>0.19828403033491099</v>
       </c>
       <c r="H25">
-        <v>2.29921334574501E-2</v>
+        <v>0.19825541654755999</v>
       </c>
       <c r="I25">
-        <v>2.65722237485983E-2</v>
+        <v>0.194248687576557</v>
       </c>
       <c r="J25">
-        <v>2.0844978355843001E-2</v>
+        <v>0.18784159962861499</v>
       </c>
       <c r="K25">
-        <v>1.7757214340891898E-2</v>
+        <v>0.18648095578562199</v>
       </c>
       <c r="L25">
-        <v>1.7599106310326799E-2</v>
+        <v>0.18354687232057801</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -15021,83 +14534,83 @@
         <v>155</v>
       </c>
       <c r="B26">
-        <v>0.22756239452921001</v>
+        <v>0.19278137764572501</v>
       </c>
       <c r="C26">
-        <v>0.17847814291883601</v>
+        <v>0.187109983488115</v>
       </c>
       <c r="D26">
-        <v>0.14142618001403801</v>
+        <v>0.18320866441796599</v>
       </c>
       <c r="E26">
-        <v>0.12828233571466499</v>
+        <v>0.176335606441124</v>
       </c>
       <c r="F26">
-        <v>0.13561649709600301</v>
+        <v>0.172273341715209</v>
       </c>
       <c r="G26">
-        <v>0.106870285879638</v>
+        <v>0.164304511902467</v>
       </c>
       <c r="H26">
-        <v>7.7541678276457998E-2</v>
+        <v>0.15484100578967799</v>
       </c>
       <c r="I26">
-        <v>8.4031468404236004E-2</v>
+        <v>0.15347110703223599</v>
       </c>
       <c r="J26">
-        <v>5.0673166334384498E-2</v>
+        <v>0.14351969731483299</v>
       </c>
       <c r="K26">
-        <v>4.4618277761586202E-2</v>
+        <v>0.14431599406107501</v>
       </c>
       <c r="L26">
-        <v>4.76290289691053E-2</v>
+        <v>0.13564732230596499</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>B26-B25</f>
-        <v>0.16623251898838981</v>
+        <v>-2.0740963135398999E-2</v>
       </c>
       <c r="C27">
         <f t="shared" ref="C27:L27" si="7">C26-C25</f>
-        <v>0.13164645287358492</v>
+        <v>-2.4432649228363995E-2</v>
       </c>
       <c r="D27">
         <f t="shared" si="7"/>
-        <v>0.103701950676761</v>
+        <v>-2.2573042080283018E-2</v>
       </c>
       <c r="E27">
         <f t="shared" si="7"/>
-        <v>9.4807979584793201E-2</v>
+        <v>-2.6794391161497982E-2</v>
       </c>
       <c r="F27">
         <f t="shared" si="7"/>
-        <v>9.5527003633467611E-2</v>
+        <v>-3.2154091295249987E-2</v>
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>7.2765644929536494E-2</v>
+        <v>-3.3979518432443984E-2</v>
       </c>
       <c r="H27">
         <f t="shared" si="7"/>
-        <v>5.4549544819007895E-2</v>
+        <v>-4.3414410757881994E-2</v>
       </c>
       <c r="I27">
         <f t="shared" si="7"/>
-        <v>5.7459244655637703E-2</v>
+        <v>-4.0777580544321013E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="7"/>
-        <v>2.9828187978541497E-2</v>
+        <v>-4.4321902313781997E-2</v>
       </c>
       <c r="K27">
         <f t="shared" si="7"/>
-        <v>2.6861063420694303E-2</v>
+        <v>-4.2164961724546979E-2</v>
       </c>
       <c r="L27">
         <f t="shared" si="7"/>
-        <v>3.0029922658778501E-2</v>
+        <v>-4.7899550014613018E-2</v>
       </c>
       <c r="M27"/>
       <c r="N27"/>
@@ -15113,40 +14626,40 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B28">
-        <v>0.23764854847436501</v>
+        <v>6.13298755408202E-2</v>
       </c>
       <c r="C28">
-        <v>0.23251305656389401</v>
+        <v>4.6831690045251097E-2</v>
       </c>
       <c r="D28">
-        <v>0.22772208189829199</v>
+        <v>3.7724229337277003E-2</v>
       </c>
       <c r="E28">
-        <v>0.22249399951166701</v>
+        <v>3.3474356129871798E-2</v>
       </c>
       <c r="F28">
-        <v>0.21451257906943899</v>
+        <v>4.0089493462535403E-2</v>
       </c>
       <c r="G28">
-        <v>0.213557829268953</v>
+        <v>3.4104640950101503E-2</v>
       </c>
       <c r="H28">
-        <v>0.20790481008548301</v>
+        <v>2.29921334574501E-2</v>
       </c>
       <c r="I28">
-        <v>0.20210640737407701</v>
+        <v>2.65722237485983E-2</v>
       </c>
       <c r="J28">
-        <v>0.20177364808648399</v>
+        <v>2.0844978355843001E-2</v>
       </c>
       <c r="K28">
-        <v>0.199917572465618</v>
+        <v>1.7757214340891898E-2</v>
       </c>
       <c r="L28">
-        <v>0.19090746469935099</v>
+        <v>1.7599106310326799E-2</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -15154,83 +14667,83 @@
         <v>155</v>
       </c>
       <c r="B29">
-        <v>0.23496477970545801</v>
+        <v>0.22756239452921001</v>
       </c>
       <c r="C29">
-        <v>0.22743192892585801</v>
+        <v>0.17847814291883601</v>
       </c>
       <c r="D29">
-        <v>0.21786087243051</v>
+        <v>0.14142618001403801</v>
       </c>
       <c r="E29">
-        <v>0.209456933874446</v>
+        <v>0.12828233571466499</v>
       </c>
       <c r="F29">
-        <v>0.19883047537975199</v>
+        <v>0.13561649709600301</v>
       </c>
       <c r="G29">
-        <v>0.187432223939519</v>
+        <v>0.106870285879638</v>
       </c>
       <c r="H29">
-        <v>0.177907725668808</v>
+        <v>7.7541678276457998E-2</v>
       </c>
       <c r="I29">
-        <v>0.167537554651638</v>
+        <v>8.4031468404236004E-2</v>
       </c>
       <c r="J29">
-        <v>0.15642238717585499</v>
+        <v>5.0673166334384498E-2</v>
       </c>
       <c r="K29">
-        <v>0.14968982944793199</v>
+        <v>4.4618277761586202E-2</v>
       </c>
       <c r="L29">
-        <v>0.140017664537083</v>
+        <v>4.76290289691053E-2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30">
         <f>B29-B28</f>
-        <v>-2.6837687689069967E-3</v>
+        <v>0.16623251898838981</v>
       </c>
       <c r="C30">
         <f t="shared" ref="C30:L30" si="8">C29-C28</f>
-        <v>-5.0811276380360038E-3</v>
+        <v>0.13164645287358492</v>
       </c>
       <c r="D30">
         <f t="shared" si="8"/>
-        <v>-9.8612094677819895E-3</v>
+        <v>0.103701950676761</v>
       </c>
       <c r="E30">
         <f t="shared" si="8"/>
-        <v>-1.3037065637221013E-2</v>
+        <v>9.4807979584793201E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="8"/>
-        <v>-1.5682103689687005E-2</v>
+        <v>9.5527003633467611E-2</v>
       </c>
       <c r="G30">
         <f t="shared" si="8"/>
-        <v>-2.6125605329434004E-2</v>
+        <v>7.2765644929536494E-2</v>
       </c>
       <c r="H30">
         <f t="shared" si="8"/>
-        <v>-2.9997084416675007E-2</v>
+        <v>5.4549544819007895E-2</v>
       </c>
       <c r="I30">
         <f t="shared" si="8"/>
-        <v>-3.4568852722439009E-2</v>
+        <v>5.7459244655637703E-2</v>
       </c>
       <c r="J30">
         <f t="shared" si="8"/>
-        <v>-4.5351260910628993E-2</v>
+        <v>2.9828187978541497E-2</v>
       </c>
       <c r="K30">
         <f t="shared" si="8"/>
-        <v>-5.0227743017686011E-2</v>
+        <v>2.6861063420694303E-2</v>
       </c>
       <c r="L30">
         <f t="shared" si="8"/>
-        <v>-5.088980016226799E-2</v>
+        <v>3.0029922658778501E-2</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -15246,40 +14759,40 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31">
-        <v>3.0264816429798999E-3</v>
+        <v>0.23764854847436501</v>
       </c>
       <c r="C31">
-        <v>3.4420393339497E-3</v>
+        <v>0.23251305656389401</v>
       </c>
       <c r="D31">
-        <v>3.1958142244747001E-3</v>
+        <v>0.22772208189829199</v>
       </c>
       <c r="E31">
-        <v>2.4087015827343001E-3</v>
+        <v>0.22249399951166701</v>
       </c>
       <c r="F31">
-        <v>2.1895054588218E-3</v>
+        <v>0.21451257906943899</v>
       </c>
       <c r="G31">
-        <v>3.5049914059662002E-3</v>
+        <v>0.213557829268953</v>
       </c>
       <c r="H31">
-        <v>3.1281768704151999E-3</v>
+        <v>0.20790481008548301</v>
       </c>
       <c r="I31">
-        <v>2.1950337879011999E-3</v>
+        <v>0.20210640737407701</v>
       </c>
       <c r="J31">
-        <v>4.0951245613786999E-3</v>
+        <v>0.20177364808648399</v>
       </c>
       <c r="K31">
-        <v>1.4688681834332E-3</v>
+        <v>0.199917572465618</v>
       </c>
       <c r="L31">
-        <v>2.8306815731155999E-3</v>
+        <v>0.19090746469935099</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -15287,83 +14800,83 @@
         <v>155</v>
       </c>
       <c r="B32">
-        <v>8.4736861045901099E-2</v>
+        <v>0.23496477970545801</v>
       </c>
       <c r="C32">
-        <v>7.7530034496721495E-2</v>
+        <v>0.22743192892585801</v>
       </c>
       <c r="D32">
-        <v>7.3136048787364502E-2</v>
+        <v>0.21786087243051</v>
       </c>
       <c r="E32">
-        <v>7.0765879428003206E-2</v>
+        <v>0.209456933874446</v>
       </c>
       <c r="F32">
-        <v>6.8792543505090606E-2</v>
+        <v>0.19883047537975199</v>
       </c>
       <c r="G32">
-        <v>6.1470643010186198E-2</v>
+        <v>0.187432223939519</v>
       </c>
       <c r="H32">
-        <v>5.37484033978761E-2</v>
+        <v>0.177907725668808</v>
       </c>
       <c r="I32">
-        <v>5.1914890360894299E-2</v>
+        <v>0.167537554651638</v>
       </c>
       <c r="J32">
-        <v>4.8894749551186903E-2</v>
+        <v>0.15642238717585499</v>
       </c>
       <c r="K32">
-        <v>4.5061707569043701E-2</v>
+        <v>0.14968982944793199</v>
       </c>
       <c r="L32">
-        <v>4.1150053627445303E-2</v>
+        <v>0.140017664537083</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>B32-B31</f>
-        <v>8.1710379402921196E-2</v>
+        <v>-2.6837687689069967E-3</v>
       </c>
       <c r="C33">
         <f t="shared" ref="C33:L33" si="9">C32-C31</f>
-        <v>7.40879951627718E-2</v>
+        <v>-5.0811276380360038E-3</v>
       </c>
       <c r="D33">
         <f t="shared" si="9"/>
-        <v>6.9940234562889808E-2</v>
+        <v>-9.8612094677819895E-3</v>
       </c>
       <c r="E33">
         <f t="shared" si="9"/>
-        <v>6.8357177845268902E-2</v>
+        <v>-1.3037065637221013E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="9"/>
-        <v>6.6603038046268812E-2</v>
+        <v>-1.5682103689687005E-2</v>
       </c>
       <c r="G33">
         <f t="shared" si="9"/>
-        <v>5.796565160422E-2</v>
+        <v>-2.6125605329434004E-2</v>
       </c>
       <c r="H33">
         <f t="shared" si="9"/>
-        <v>5.0620226527460899E-2</v>
+        <v>-2.9997084416675007E-2</v>
       </c>
       <c r="I33">
         <f t="shared" si="9"/>
-        <v>4.9719856572993097E-2</v>
+        <v>-3.4568852722439009E-2</v>
       </c>
       <c r="J33">
         <f t="shared" si="9"/>
-        <v>4.4799624989808204E-2</v>
+        <v>-4.5351260910628993E-2</v>
       </c>
       <c r="K33">
         <f t="shared" si="9"/>
-        <v>4.3592839385610503E-2</v>
+        <v>-5.0227743017686011E-2</v>
       </c>
       <c r="L33">
         <f t="shared" si="9"/>
-        <v>3.8319372054329705E-2</v>
+        <v>-5.088980016226799E-2</v>
       </c>
       <c r="M33"/>
       <c r="N33"/>
@@ -15379,40 +14892,40 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34">
-        <v>2.36726670294744E-2</v>
+        <v>3.0264816429798999E-3</v>
       </c>
       <c r="C34">
-        <v>2.5238400495096801E-2</v>
+        <v>3.4420393339497E-3</v>
       </c>
       <c r="D34">
-        <v>2.54422117627441E-2</v>
+        <v>3.1958142244747001E-3</v>
       </c>
       <c r="E34">
-        <v>2.1726527273189501E-2</v>
+        <v>2.4087015827343001E-3</v>
       </c>
       <c r="F34">
-        <v>2.3858144844693101E-2</v>
+        <v>2.1895054588218E-3</v>
       </c>
       <c r="G34">
-        <v>2.5199850601999599E-2</v>
+        <v>3.5049914059662002E-3</v>
       </c>
       <c r="H34">
-        <v>2.31053385068813E-2</v>
+        <v>3.1281768704151999E-3</v>
       </c>
       <c r="I34">
-        <v>2.1966167457136299E-2</v>
+        <v>2.1950337879011999E-3</v>
       </c>
       <c r="J34">
-        <v>2.2212950755579702E-2</v>
+        <v>4.0951245613786999E-3</v>
       </c>
       <c r="K34">
-        <v>2.3087423439937499E-2</v>
+        <v>1.4688681834332E-3</v>
       </c>
       <c r="L34">
-        <v>2.1834972715244001E-2</v>
+        <v>2.8306815731155999E-3</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -15420,83 +14933,83 @@
         <v>155</v>
       </c>
       <c r="B35">
-        <v>3.4323236608360501E-2</v>
+        <v>8.4736861045901099E-2</v>
       </c>
       <c r="C35">
-        <v>3.3465365878077899E-2</v>
+        <v>7.7530034496721495E-2</v>
       </c>
       <c r="D35">
-        <v>3.1724160407638501E-2</v>
+        <v>7.3136048787364502E-2</v>
       </c>
       <c r="E35">
-        <v>3.2251468113414901E-2</v>
+        <v>7.0765879428003206E-2</v>
       </c>
       <c r="F35">
-        <v>3.2108270665571099E-2</v>
+        <v>6.8792543505090606E-2</v>
       </c>
       <c r="G35">
-        <v>3.09372506850716E-2</v>
+        <v>6.1470643010186198E-2</v>
       </c>
       <c r="H35">
-        <v>3.0413784875115198E-2</v>
+        <v>5.37484033978761E-2</v>
       </c>
       <c r="I35">
-        <v>2.9078606594822001E-2</v>
+        <v>5.1914890360894299E-2</v>
       </c>
       <c r="J35">
-        <v>2.9358003228658499E-2</v>
+        <v>4.8894749551186903E-2</v>
       </c>
       <c r="K35">
-        <v>2.97152520590027E-2</v>
+        <v>4.5061707569043701E-2</v>
       </c>
       <c r="L35">
-        <v>2.8139001793280601E-2</v>
+        <v>4.1150053627445303E-2</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B36">
         <f>B35-B34</f>
-        <v>1.0650569578886101E-2</v>
+        <v>8.1710379402921196E-2</v>
       </c>
       <c r="C36">
         <f t="shared" ref="C36:L36" si="10">C35-C34</f>
-        <v>8.2269653829810975E-3</v>
+        <v>7.40879951627718E-2</v>
       </c>
       <c r="D36">
         <f t="shared" si="10"/>
-        <v>6.2819486448944008E-3</v>
+        <v>6.9940234562889808E-2</v>
       </c>
       <c r="E36">
         <f t="shared" si="10"/>
-        <v>1.05249408402254E-2</v>
+        <v>6.8357177845268902E-2</v>
       </c>
       <c r="F36">
         <f t="shared" si="10"/>
-        <v>8.250125820877998E-3</v>
+        <v>6.6603038046268812E-2</v>
       </c>
       <c r="G36">
         <f t="shared" si="10"/>
-        <v>5.7374000830720008E-3</v>
+        <v>5.796565160422E-2</v>
       </c>
       <c r="H36">
         <f t="shared" si="10"/>
-        <v>7.3084463682338979E-3</v>
+        <v>5.0620226527460899E-2</v>
       </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>7.1124391376857013E-3</v>
+        <v>4.9719856572993097E-2</v>
       </c>
       <c r="J36">
         <f t="shared" si="10"/>
-        <v>7.1450524730787973E-3</v>
+        <v>4.4799624989808204E-2</v>
       </c>
       <c r="K36">
         <f t="shared" si="10"/>
-        <v>6.6278286190652007E-3</v>
+        <v>4.3592839385610503E-2</v>
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>6.3040290780366007E-3</v>
+        <v>3.8319372054329705E-2</v>
       </c>
       <c r="M36"/>
       <c r="N36"/>
@@ -15512,40 +15025,40 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B37">
-        <v>1.0563361093587E-3</v>
+        <v>2.36726670294744E-2</v>
       </c>
       <c r="C37">
-        <v>1.4120454952217E-3</v>
+        <v>2.5238400495096801E-2</v>
       </c>
       <c r="D37">
-        <v>2.5046560056180001E-4</v>
+        <v>2.54422117627441E-2</v>
       </c>
       <c r="E37">
-        <v>5.7163006194349997E-4</v>
+        <v>2.1726527273189501E-2</v>
       </c>
       <c r="F37">
-        <v>8.1993578206620004E-4</v>
+        <v>2.3858144844693101E-2</v>
       </c>
       <c r="G37">
-        <v>3.8269485282970003E-4</v>
+        <v>2.5199850601999599E-2</v>
       </c>
       <c r="H37">
-        <v>3.0375946225560998E-3</v>
+        <v>2.31053385068813E-2</v>
       </c>
       <c r="I37">
-        <v>5.6945336617289998E-4</v>
+        <v>2.1966167457136299E-2</v>
       </c>
       <c r="J37">
-        <v>8.0587641404510004E-4</v>
+        <v>2.2212950755579702E-2</v>
       </c>
       <c r="K37">
-        <v>1.3092980446956001E-3</v>
+        <v>2.3087423439937499E-2</v>
       </c>
       <c r="L37">
-        <v>8.4356887877640001E-4</v>
+        <v>2.1834972715244001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -15553,83 +15066,338 @@
         <v>155</v>
       </c>
       <c r="B38">
+        <v>3.4323236608360501E-2</v>
+      </c>
+      <c r="C38">
+        <v>3.3465365878077899E-2</v>
+      </c>
+      <c r="D38">
+        <v>3.1724160407638501E-2</v>
+      </c>
+      <c r="E38">
+        <v>3.2251468113414901E-2</v>
+      </c>
+      <c r="F38">
+        <v>3.2108270665571099E-2</v>
+      </c>
+      <c r="G38">
+        <v>3.09372506850716E-2</v>
+      </c>
+      <c r="H38">
+        <v>3.0413784875115198E-2</v>
+      </c>
+      <c r="I38">
+        <v>2.9078606594822001E-2</v>
+      </c>
+      <c r="J38">
+        <v>2.9358003228658499E-2</v>
+      </c>
+      <c r="K38">
+        <v>2.97152520590027E-2</v>
+      </c>
+      <c r="L38">
+        <v>2.8139001793280601E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>B38-B37</f>
+        <v>1.0650569578886101E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" si="11">C38-C37</f>
+        <v>8.2269653829810975E-3</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="11"/>
+        <v>6.2819486448944008E-3</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="11"/>
+        <v>1.05249408402254E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="11"/>
+        <v>8.250125820877998E-3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="11"/>
+        <v>5.7374000830720008E-3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="11"/>
+        <v>7.3084463682338979E-3</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="11"/>
+        <v>7.1124391376857013E-3</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="11"/>
+        <v>7.1450524730787973E-3</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="11"/>
+        <v>6.6278286190652007E-3</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="11"/>
+        <v>6.3040290780366007E-3</v>
+      </c>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40">
+        <v>1.0563361093587E-3</v>
+      </c>
+      <c r="C40">
+        <v>1.4120454952217E-3</v>
+      </c>
+      <c r="D40">
+        <v>2.5046560056180001E-4</v>
+      </c>
+      <c r="E40">
+        <v>5.7163006194349997E-4</v>
+      </c>
+      <c r="F40">
+        <v>8.1993578206620004E-4</v>
+      </c>
+      <c r="G40">
+        <v>3.8269485282970003E-4</v>
+      </c>
+      <c r="H40">
+        <v>3.0375946225560998E-3</v>
+      </c>
+      <c r="I40">
+        <v>5.6945336617289998E-4</v>
+      </c>
+      <c r="J40">
+        <v>8.0587641404510004E-4</v>
+      </c>
+      <c r="K40">
+        <v>1.3092980446956001E-3</v>
+      </c>
+      <c r="L40">
+        <v>8.4356887877640001E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41">
         <v>3.0669438754809999E-4</v>
       </c>
-      <c r="C38">
+      <c r="C41">
         <v>8.5334734741480001E-4</v>
       </c>
-      <c r="D38">
+      <c r="D41">
         <v>1.3360008381429001E-3</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>4.1654947103630002E-4</v>
       </c>
-      <c r="F38">
+      <c r="F41">
         <v>1.1396002205638E-3</v>
       </c>
-      <c r="G38">
+      <c r="G41">
         <v>2.5214872540260002E-4</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H41" s="2">
         <v>8.6319129942330101E-5</v>
       </c>
-      <c r="I38">
+      <c r="I41">
         <v>2.2313171399580001E-4</v>
       </c>
-      <c r="J38">
+      <c r="J41">
         <v>1.4078043732529999E-4</v>
       </c>
-      <c r="K38">
+      <c r="K41">
         <v>1.329653595398E-4</v>
       </c>
-      <c r="L38">
+      <c r="L41">
         <v>1.947907308985E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <f>B38-B37</f>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <f>B41-B40</f>
         <v>-7.4964172181060001E-4</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" ref="C39:L39" si="11">C38-C37</f>
+      <c r="C42" s="1">
+        <f t="shared" ref="C42:L42" si="12">C41-C40</f>
         <v>-5.5869814780690002E-4</v>
       </c>
-      <c r="D39" s="1">
-        <f t="shared" si="11"/>
+      <c r="D42" s="1">
+        <f t="shared" si="12"/>
         <v>1.0855352375811001E-3</v>
       </c>
-      <c r="E39" s="1">
-        <f t="shared" si="11"/>
+      <c r="E42" s="1">
+        <f t="shared" si="12"/>
         <v>-1.5508059090719995E-4</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="11"/>
+      <c r="F42" s="1">
+        <f t="shared" si="12"/>
         <v>3.1966443849759999E-4</v>
       </c>
-      <c r="G39" s="1">
-        <f t="shared" si="11"/>
+      <c r="G42" s="1">
+        <f t="shared" si="12"/>
         <v>-1.3054612742710001E-4</v>
       </c>
-      <c r="H39" s="1">
-        <f t="shared" si="11"/>
+      <c r="H42" s="1">
+        <f t="shared" si="12"/>
         <v>-2.9512754926137698E-3</v>
       </c>
-      <c r="I39" s="1">
-        <f t="shared" si="11"/>
+      <c r="I42" s="1">
+        <f t="shared" si="12"/>
         <v>-3.463216521771E-4</v>
       </c>
-      <c r="J39" s="1">
-        <f t="shared" si="11"/>
+      <c r="J42" s="1">
+        <f t="shared" si="12"/>
         <v>-6.6509597671980008E-4</v>
       </c>
-      <c r="K39" s="1">
-        <f t="shared" si="11"/>
+      <c r="K42" s="1">
+        <f t="shared" si="12"/>
         <v>-1.1763326851558001E-3</v>
       </c>
-      <c r="L39" s="1">
-        <f t="shared" si="11"/>
+      <c r="L42" s="1">
+        <f t="shared" si="12"/>
         <v>-6.4877814787790006E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43">
+        <v>0.75223240980849604</v>
+      </c>
+      <c r="C43">
+        <v>0.65356347427977901</v>
+      </c>
+      <c r="D43">
+        <v>0.62749804614068405</v>
+      </c>
+      <c r="E43">
+        <v>0.54492299106543995</v>
+      </c>
+      <c r="F43">
+        <v>0.47285197034527998</v>
+      </c>
+      <c r="G43">
+        <v>0.40991988800809098</v>
+      </c>
+      <c r="H43">
+        <v>0.287771805448783</v>
+      </c>
+      <c r="I43">
+        <v>0.21966095128489699</v>
+      </c>
+      <c r="J43">
+        <v>0.203807968566523</v>
+      </c>
+      <c r="K43">
+        <v>7.1869639867929394E-2</v>
+      </c>
+      <c r="L43">
+        <v>1.0268715673047501E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44">
+        <v>0.73668125318101796</v>
+      </c>
+      <c r="C44">
+        <v>0.67290146818733898</v>
+      </c>
+      <c r="D44">
+        <v>0.60556406838255095</v>
+      </c>
+      <c r="E44">
+        <v>0.57406981709673199</v>
+      </c>
+      <c r="F44">
+        <v>0.460372896000529</v>
+      </c>
+      <c r="G44">
+        <v>0.43772213083950301</v>
+      </c>
+      <c r="H44">
+        <v>0.37075010083362803</v>
+      </c>
+      <c r="I44">
+        <v>0.31640083121055801</v>
+      </c>
+      <c r="J44">
+        <v>0.26534907356737603</v>
+      </c>
+      <c r="K44">
+        <v>0.18526466432123401</v>
+      </c>
+      <c r="L44">
+        <v>0.12970266093883001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <f>B44-B43</f>
+        <v>-1.555115662747808E-2</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" ref="C45:L45" si="13">C44-C43</f>
+        <v>1.9337993907559969E-2</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="13"/>
+        <v>-2.1933977758133105E-2</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="13"/>
+        <v>2.9146826031292039E-2</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="13"/>
+        <v>-1.2479074344750984E-2</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="13"/>
+        <v>2.7802242831412027E-2</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="13"/>
+        <v>8.2978295384845024E-2</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="13"/>
+        <v>9.6739879925661021E-2</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="13"/>
+        <v>6.1541105000853025E-2</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="13"/>
+        <v>0.11339502445330461</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="13"/>
+        <v>0.11943394526578251</v>
       </c>
     </row>
   </sheetData>

--- a/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
+++ b/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Restaurants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfani/Github/fani-lab/LADy/main/output/SemEval-14/Restaurants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A4D4D1-2291-43CA-8927-D05409BFC617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A491B5-453B-274D-AD7F-635E104C0651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,6 +571,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF25817A"/>
+      <color rgb="FF39CCC0"/>
+      <color rgb="FF00E5C1"/>
+      <color rgb="FFFFFC00"/>
+      <color rgb="FF00FFED"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -660,8 +669,137 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="25817A"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="25817A"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$22:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-6.1946902654860247E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5663716814159021E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.389380530973495E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.398230088495598E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3274336283186028E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0619469026548978E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9026548672565968E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0176991150442005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7256637168141009E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4690265486724698E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1017699115044243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C55C-BA4E-A213-71C349D7C1C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$8</c:f>
@@ -790,7 +928,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -919,7 +1057,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -1048,7 +1186,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$11</c:f>
@@ -1175,7 +1313,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -1304,7 +1442,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -1674,10 +1812,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.69587335492637892"/>
-          <c:y val="0.20960848643919511"/>
-          <c:w val="0.27965879265091864"/>
-          <c:h val="0.51562117235345573"/>
+          <c:x val="0.7425710274308539"/>
+          <c:y val="0.16449558936711858"/>
+          <c:w val="0.24210190657335046"/>
+          <c:h val="0.53065863477591613"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1828,8 +1966,137 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="25817A"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="25817A"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$24:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$45:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1.555115662747808E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9337993907559969E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.1933977758133105E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9146826031292039E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2479074344750984E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7802242831412027E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2978295384845024E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6739879925661021E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1541105000853025E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11339502445330461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11943394526578251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DB6-E547-B0EF-E42229ECFD7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$31</c:f>
@@ -1958,7 +2225,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -2087,7 +2354,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -2216,7 +2483,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$11</c:f>
@@ -2343,7 +2610,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -2472,7 +2739,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -2842,10 +3109,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.69587335492637892"/>
-          <c:y val="0.20960848643919511"/>
-          <c:w val="0.27965879265091864"/>
-          <c:h val="0.51562117235345573"/>
+          <c:x val="0.73681986505763253"/>
+          <c:y val="0.16454544513717739"/>
+          <c:w val="0.23882175400090638"/>
+          <c:h val="0.51562108674471863"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4388,14 +4655,14 @@
       <selection activeCell="M112" sqref="M112:W131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4466,7 +4733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -4537,7 +4804,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -4608,7 +4875,7 @@
         <v>5.4342105263157803E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -4679,7 +4946,7 @@
         <v>3.49342105263157E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -4750,7 +5017,7 @@
         <v>9.9802631578947004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -4821,7 +5088,7 @@
         <v>7.45540935672514E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4892,7 +5159,7 @@
         <v>0.16180999373433499</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -4963,7 +5230,7 @@
         <v>0.197398608912632</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -5034,7 +5301,7 @@
         <v>0.50207694256343804</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -5105,7 +5372,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -5176,7 +5443,7 @@
         <v>0.13564732230596499</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -5247,7 +5514,7 @@
         <v>0.14860299443259201</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -5318,7 +5585,7 @@
         <v>0.22134017791201799</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -5389,7 +5656,7 @@
         <v>7.45540935672514E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -5460,7 +5727,7 @@
         <v>0.107802544555834</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -5531,7 +5798,7 @@
         <v>0.113382924174209</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -5602,7 +5869,7 @@
         <v>0.12598920140641201</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -5673,7 +5940,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -5744,7 +6011,7 @@
         <v>0.244736842105263</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -5815,7 +6082,7 @@
         <v>0.30723684210526298</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -5886,7 +6153,7 @@
         <v>0.71315789473684199</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -5957,7 +6224,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -6028,7 +6295,7 @@
         <v>4.0531561461794E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -6099,7 +6366,7 @@
         <v>1.98006644518272E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -6170,7 +6437,7 @@
         <v>1.28239202657807E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -6241,7 +6508,7 @@
         <v>7.6279069767440999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -6312,7 +6579,7 @@
         <v>2.4156802960789599E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -6383,7 +6650,7 @@
         <v>5.7875222444202998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -6454,7 +6721,7 @@
         <v>7.0855746903132802E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -6525,7 +6792,7 @@
         <v>0.377694164843142</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -6596,7 +6863,7 @@
         <v>4.0531561461794E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -6667,7 +6934,7 @@
         <v>4.76290289691053E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -6738,7 +7005,7 @@
         <v>5.2541875908374502E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -6809,7 +7076,7 @@
         <v>0.11926300904293</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -6880,7 +7147,7 @@
         <v>2.4156802960789599E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -6951,7 +7218,7 @@
         <v>3.6953983000931702E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -7022,7 +7289,7 @@
         <v>3.8823262269712597E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -7093,7 +7360,7 @@
         <v>4.7362477491118299E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -7164,7 +7431,7 @@
         <v>4.0531561461794E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -7235,7 +7502,7 @@
         <v>9.1694352159468404E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -7306,7 +7573,7 @@
         <v>0.117607973421926</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -7377,7 +7644,7 @@
         <v>0.58671096345514895</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -7448,7 +7715,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -7519,7 +7786,7 @@
         <v>0.12894736842105201</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -7590,7 +7857,7 @@
         <v>5.3947368421052501E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
@@ -7661,7 +7928,7 @@
         <v>3.4473684210526198E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -7732,7 +7999,7 @@
         <v>9.8421052631577997E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
@@ -7803,7 +8070,7 @@
         <v>8.2597639933166198E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -7874,7 +8141,7 @@
         <v>0.15703529657477</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -7945,7 +8212,7 @@
         <v>0.19790990259740199</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>30</v>
       </c>
@@ -8016,7 +8283,7 @@
         <v>0.50318632237260996</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>31</v>
       </c>
@@ -8087,7 +8354,7 @@
         <v>0.12894736842105201</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
@@ -8158,7 +8425,7 @@
         <v>0.140017664537083</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>33</v>
       </c>
@@ -8229,7 +8496,7 @@
         <v>0.154518396166339</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
@@ -8300,7 +8567,7 @@
         <v>0.22795930815826601</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
@@ -8371,7 +8638,7 @@
         <v>8.2597639933166198E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>36</v>
       </c>
@@ -8442,7 +8709,7 @@
         <v>0.114369204260651</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
@@ -8513,7 +8780,7 @@
         <v>0.120816476636064</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
@@ -8584,7 +8851,7 @@
         <v>0.13417926472571201</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
@@ -8655,7 +8922,7 @@
         <v>0.12894736842105201</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
@@ -8726,7 +8993,7 @@
         <v>0.24671052631578899</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>41</v>
       </c>
@@ -8797,7 +9064,7 @@
         <v>0.30394736842105202</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>42</v>
       </c>
@@ -8868,7 +9135,7 @@
         <v>0.70592105263157801</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -8939,7 +9206,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>23</v>
       </c>
@@ -9010,7 +9277,7 @@
         <v>3.8157894736842099E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -9081,7 +9348,7 @@
         <v>1.7631578947368401E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -9152,7 +9419,7 @@
         <v>1.2105263157894701E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>26</v>
       </c>
@@ -9223,7 +9490,7 @@
         <v>7.3684210526314999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>27</v>
       </c>
@@ -9294,7 +9561,7 @@
         <v>2.0894423558897202E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>28</v>
       </c>
@@ -9365,7 +9632,7 @@
         <v>4.6818677725014197E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
@@ -9436,7 +9703,7 @@
         <v>6.4621189444596605E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>30</v>
       </c>
@@ -9507,7 +9774,7 @@
         <v>0.37512822645959698</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>31</v>
       </c>
@@ -9578,7 +9845,7 @@
         <v>3.8157894736842099E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>32</v>
       </c>
@@ -9649,7 +9916,7 @@
         <v>4.1150053627445303E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
@@ -9720,7 +9987,7 @@
         <v>4.7514440981606898E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
@@ -9791,7 +10058,7 @@
         <v>0.11615664706553901</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>35</v>
       </c>
@@ -9862,7 +10129,7 @@
         <v>2.0894423558897202E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>36</v>
       </c>
@@ -9933,7 +10200,7 @@
         <v>3.1631757802767099E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>37</v>
       </c>
@@ -10004,7 +10271,7 @@
         <v>3.4115879343545499E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>38</v>
       </c>
@@ -10075,7 +10342,7 @@
         <v>4.3727721192354997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>39</v>
       </c>
@@ -10146,7 +10413,7 @@
         <v>3.8157894736842099E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
@@ -10217,7 +10484,7 @@
         <v>8.3552631578947295E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>41</v>
       </c>
@@ -10288,7 +10555,7 @@
         <v>0.111184210526315</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>42</v>
       </c>
@@ -10359,7 +10626,7 @@
         <v>0.57236842105263097</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -10430,7 +10697,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>23</v>
       </c>
@@ -10501,7 +10768,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>24</v>
       </c>
@@ -10572,7 +10839,7 @@
         <v>2.2763157894736801E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>25</v>
       </c>
@@ -10643,7 +10910,7 @@
         <v>2.1052631578947299E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>26</v>
       </c>
@@ -10714,7 +10981,7 @@
         <v>6.0460526315789E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>27</v>
       </c>
@@ -10785,7 +11052,7 @@
         <v>3.6357340720219997E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>28</v>
       </c>
@@ -10856,7 +11123,7 @@
         <v>5.7397964166488999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>29</v>
       </c>
@@ -10927,7 +11194,7 @@
         <v>0.101754428243347</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>30</v>
       </c>
@@ -10998,7 +11265,7 @@
         <v>0.281529148848227</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -11069,7 +11336,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -11140,7 +11407,7 @@
         <v>2.8139001793280601E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>33</v>
       </c>
@@ -11211,7 +11478,7 @@
         <v>4.3911072609414702E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>34</v>
       </c>
@@ -11282,7 +11549,7 @@
         <v>8.81032224903361E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>35</v>
       </c>
@@ -11353,7 +11620,7 @@
         <v>3.6357340720219997E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>36</v>
       </c>
@@ -11424,7 +11691,7 @@
         <v>1.20966772531869E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>37</v>
       </c>
@@ -11495,7 +11762,7 @@
         <v>1.7232849777752302E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>38</v>
       </c>
@@ -11566,7 +11833,7 @@
         <v>2.52557420075789E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>39</v>
       </c>
@@ -11637,7 +11904,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>40</v>
       </c>
@@ -11708,7 +11975,7 @@
         <v>0.110526315789473</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>41</v>
       </c>
@@ -11779,7 +12046,7 @@
         <v>0.207236842105263</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>42</v>
       </c>
@@ -11850,7 +12117,7 @@
         <v>0.47631578947368403</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -11921,7 +12188,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>23</v>
       </c>
@@ -11992,7 +12259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>24</v>
       </c>
@@ -12063,7 +12330,7 @@
         <v>1.3157894736839999E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>25</v>
       </c>
@@ -12134,7 +12401,7 @@
         <v>2.6315789473679998E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>26</v>
       </c>
@@ -12205,7 +12472,7 @@
         <v>3.9473684210526303E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>27</v>
       </c>
@@ -12276,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>28</v>
       </c>
@@ -12347,7 +12614,7 @@
         <v>2.1929824561399999E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>29</v>
       </c>
@@ -12418,7 +12685,7 @@
         <v>8.1140350877189997E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>30</v>
       </c>
@@ -12489,7 +12756,7 @@
         <v>1.1074561403507999E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>31</v>
       </c>
@@ -12560,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>32</v>
       </c>
@@ -12631,7 +12898,7 @@
         <v>1.947907308985E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>33</v>
       </c>
@@ -12702,7 +12969,7 @@
         <v>4.5111185917369998E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>34</v>
       </c>
@@ -12773,7 +13040,7 @@
         <v>5.7130809134859999E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -12844,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>36</v>
       </c>
@@ -12915,7 +13182,7 @@
         <v>1.09649122807E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>37</v>
       </c>
@@ -12986,7 +13253,7 @@
         <v>1.7580409356719999E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>38</v>
       </c>
@@ -13057,7 +13324,7 @@
         <v>1.9560047365769999E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>39</v>
       </c>
@@ -13128,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>40</v>
       </c>
@@ -13199,7 +13466,7 @@
         <v>6.5789473684210004E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>41</v>
       </c>
@@ -13270,7 +13537,7 @@
         <v>2.6315789473684002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>42</v>
       </c>
@@ -13350,18 +13617,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FFB291-E4F5-4E4E-B884-4FDFA1C7897B}">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -13399,7 +13666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
@@ -13437,7 +13704,7 @@
         <v>0.18881578947368399</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>155</v>
       </c>
@@ -13486,7 +13753,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4">
         <f>B3-B2</f>
         <v>-3.5526315789474017E-2</v>
@@ -13543,7 +13810,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>154</v>
       </c>
@@ -13581,7 +13848,7 @@
         <v>1.66112956810631E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>155</v>
       </c>
@@ -13630,7 +13897,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7">
         <f>B6-B5</f>
         <v>0.1828947368421053</v>
@@ -13687,7 +13954,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
@@ -13725,7 +13992,7 @@
         <v>0.19605263157894701</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>155</v>
       </c>
@@ -13774,7 +14041,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10">
         <f>B9-B8</f>
         <v>-1.3157894736839926E-3</v>
@@ -13831,7 +14098,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>157</v>
       </c>
@@ -13869,7 +14136,7 @@
         <v>3.9473684210525996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
@@ -13918,7 +14185,7 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13">
         <f>B12-B11</f>
         <v>6.6447368421052602E-2</v>
@@ -13975,7 +14242,7 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
@@ -14013,7 +14280,7 @@
         <v>3.2894736842105001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>155</v>
       </c>
@@ -14062,7 +14329,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16">
         <f>B15-B14</f>
         <v>-2.6315789473684002E-3</v>
@@ -14119,7 +14386,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -14157,7 +14424,7 @@
         <v>6.5789473684210004E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>155</v>
       </c>
@@ -14206,7 +14473,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B19">
         <f>B18-B17</f>
         <v>0</v>
@@ -14263,7 +14530,7 @@
       <c r="V19"/>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>161</v>
       </c>
@@ -14312,7 +14579,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>155</v>
       </c>
@@ -14361,7 +14628,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B22">
         <f>B21-B20</f>
         <v>-6.1946902654860247E-3</v>
@@ -14418,7 +14685,7 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -14442,7 +14709,7 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -14491,7 +14758,7 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>153</v>
       </c>
@@ -14529,7 +14796,7 @@
         <v>0.18354687232057801</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>155</v>
       </c>
@@ -14567,7 +14834,7 @@
         <v>0.13564732230596499</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B27">
         <f>B26-B25</f>
         <v>-2.0740963135398999E-2</v>
@@ -14624,7 +14891,7 @@
       <c r="V27"/>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>154</v>
       </c>
@@ -14662,7 +14929,7 @@
         <v>1.7599106310326799E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>155</v>
       </c>
@@ -14700,7 +14967,7 @@
         <v>4.76290289691053E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B30">
         <f>B29-B28</f>
         <v>0.16623251898838981</v>
@@ -14757,7 +15024,7 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>156</v>
       </c>
@@ -14795,7 +15062,7 @@
         <v>0.19090746469935099</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>155</v>
       </c>
@@ -14833,7 +15100,7 @@
         <v>0.140017664537083</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B33">
         <f>B32-B31</f>
         <v>-2.6837687689069967E-3</v>
@@ -14890,7 +15157,7 @@
       <c r="V33"/>
       <c r="W33"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>157</v>
       </c>
@@ -14928,7 +15195,7 @@
         <v>2.8306815731155999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
@@ -14966,7 +15233,7 @@
         <v>4.1150053627445303E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B36">
         <f>B35-B34</f>
         <v>8.1710379402921196E-2</v>
@@ -15023,7 +15290,7 @@
       <c r="V36"/>
       <c r="W36"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>158</v>
       </c>
@@ -15061,7 +15328,7 @@
         <v>2.1834972715244001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>155</v>
       </c>
@@ -15099,7 +15366,7 @@
         <v>2.8139001793280601E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B39">
         <f>B38-B37</f>
         <v>1.0650569578886101E-2</v>
@@ -15156,7 +15423,7 @@
       <c r="V39"/>
       <c r="W39"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
@@ -15194,7 +15461,7 @@
         <v>8.4356887877640001E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>155</v>
       </c>
@@ -15232,7 +15499,7 @@
         <v>1.947907308985E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <f>B41-B40</f>
         <v>-7.4964172181060001E-4</v>
@@ -15278,7 +15545,7 @@
         <v>-6.4877814787790006E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>161</v>
       </c>
@@ -15316,7 +15583,7 @@
         <v>1.0268715673047501E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>155</v>
       </c>
@@ -15354,7 +15621,7 @@
         <v>0.12970266093883001</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <f>B44-B43</f>
         <v>-1.555115662747808E-2</v>

--- a/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
+++ b/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfani/Github/fani-lab/LADy/main/output/SemEval-14/Restaurants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A491B5-453B-274D-AD7F-635E104C0651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B840DF-FEA1-489E-B109-4FFD2225E3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
+    <workbookView xWindow="5655" yWindow="3000" windowWidth="21210" windowHeight="12990" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -755,37 +755,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-6.1946902654860247E-3</c:v>
+                  <c:v>0.287610619469027</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5663716814159021E-2</c:v>
+                  <c:v>0.27079646017699099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.389380530973495E-2</c:v>
+                  <c:v>0.19557522123893895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.398230088495598E-2</c:v>
+                  <c:v>0.23097345132743302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.3274336283186028E-2</c:v>
+                  <c:v>0.16017699115044201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0619469026548978E-2</c:v>
+                  <c:v>0.16637168141592898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9026548672565968E-2</c:v>
+                  <c:v>0.15044247787610701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0176991150442005E-2</c:v>
+                  <c:v>9.5575221238937996E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7256637168141009E-2</c:v>
+                  <c:v>8.4955752212388588E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.4690265486724698E-2</c:v>
+                  <c:v>8.4070796460176303E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1017699115044243</c:v>
+                  <c:v>6.1946902654867297E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2052,37 +2052,37 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.555115662747808E-2</c:v>
+                  <c:v>0.29155711613406798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9337993907559969E-2</c:v>
+                  <c:v>0.27570958620312397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.1933977758133105E-2</c:v>
+                  <c:v>0.209771042238099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9146826031292039E-2</c:v>
+                  <c:v>0.21653540231423496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2479074344750984E-2</c:v>
+                  <c:v>0.17024981434063396</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7802242831412027E-2</c:v>
+                  <c:v>0.19046698556287703</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2978295384845024E-2</c:v>
+                  <c:v>0.17360814896287499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6739879925661021E-2</c:v>
+                  <c:v>0.143874153179231</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1541105000853025E-2</c:v>
+                  <c:v>9.9539800873637008E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11339502445330461</c:v>
+                  <c:v>0.115469985340227</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11943394526578251</c:v>
+                  <c:v>9.19294664144506E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4655,14 +4655,14 @@
       <selection activeCell="M112" sqref="M112:W131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>5.4342105263157803E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>3.49342105263157E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>9.9802631578947004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>7.45540935672514E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>0.16180999373433499</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>0.197398608912632</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>0.50207694256343804</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>0.13564732230596499</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>0.14860299443259201</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>0.22134017791201799</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>7.45540935672514E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>0.107802544555834</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>0.113382924174209</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>0.12598920140641201</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>0.244736842105263</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>0.30723684210526298</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>0.71315789473684199</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>4.0531561461794E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>1.98006644518272E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>1.28239202657807E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>7.6279069767440999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>2.4156802960789599E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>5.7875222444202998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>7.0855746903132802E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>0.377694164843142</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>4.0531561461794E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>4.76290289691053E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>5.2541875908374502E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>0.11926300904293</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>2.4156802960789599E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>3.6953983000931702E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>3.8823262269712597E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>4.7362477491118299E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>4.0531561461794E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>9.1694352159468404E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>0.117607973421926</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>0.58671096345514895</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>0.12894736842105201</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>5.3947368421052501E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>3.4473684210526198E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>9.8421052631577997E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>8.2597639933166198E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>0.15703529657477</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>0.19790990259740199</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>30</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>0.50318632237260996</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>31</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>0.12894736842105201</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>0.140017664537083</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>33</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>0.154518396166339</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>0.22795930815826601</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>8.2597639933166198E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>36</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>0.114369204260651</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>0.120816476636064</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>0.13417926472571201</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>0.12894736842105201</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>0.24671052631578899</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>41</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>0.30394736842105202</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>42</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>0.70592105263157801</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>23</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>3.8157894736842099E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>1.7631578947368401E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>1.2105263157894701E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>26</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>7.3684210526314999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>27</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>2.0894423558897202E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>28</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>4.6818677725014197E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>6.4621189444596605E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>30</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>0.37512822645959698</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>31</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>3.8157894736842099E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>32</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>4.1150053627445303E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>4.7514440981606898E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>0.11615664706553901</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>35</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>2.0894423558897202E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>36</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>3.1631757802767099E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>37</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>3.4115879343545499E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>38</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>4.3727721192354997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>39</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>3.8157894736842099E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>8.3552631578947295E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>41</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>0.111184210526315</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>42</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>0.57236842105263097</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>23</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>24</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>2.2763157894736801E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>25</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>2.1052631578947299E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>26</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>6.0460526315789E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>27</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>3.6357340720219997E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>28</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>5.7397964166488999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>29</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>0.101754428243347</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>30</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>0.281529148848227</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>2.8139001793280601E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>33</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>4.3911072609414702E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>34</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>8.81032224903361E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>35</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>3.6357340720219997E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>36</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>1.20966772531869E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>37</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>1.7232849777752302E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>38</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>2.52557420075789E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>39</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>40</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>0.110526315789473</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>41</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>0.207236842105263</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>42</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>0.47631578947368403</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>23</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>24</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>1.3157894736839999E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>25</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>2.6315789473679998E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>26</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>3.9473684210526303E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>27</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>28</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>2.1929824561399999E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>29</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>8.1140350877189997E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>30</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>1.1074561403507999E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>31</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>32</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>1.947907308985E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>33</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>4.5111185917369998E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>34</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>5.7130809134859999E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>36</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>1.09649122807E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>37</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>1.7580409356719999E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>38</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>1.9560047365769999E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>39</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>40</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>6.5789473684210004E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>41</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>2.6315789473684002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>42</v>
       </c>
@@ -13617,18 +13617,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FFB291-E4F5-4E4E-B884-4FDFA1C7897B}">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>0.18881578947368399</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>155</v>
       </c>
@@ -13753,7 +13753,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>B3-B2</f>
         <v>-3.5526315789474017E-2</v>
@@ -13810,7 +13810,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>154</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>1.66112956810631E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>155</v>
       </c>
@@ -13897,7 +13897,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>B6-B5</f>
         <v>0.1828947368421053</v>
@@ -13954,7 +13954,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>0.19605263157894701</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>155</v>
       </c>
@@ -14041,7 +14041,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>B9-B8</f>
         <v>-1.3157894736839926E-3</v>
@@ -14098,7 +14098,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>157</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>3.9473684210525996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
@@ -14185,7 +14185,7 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>B12-B11</f>
         <v>6.6447368421052602E-2</v>
@@ -14242,7 +14242,7 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>3.2894736842105001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>155</v>
       </c>
@@ -14329,7 +14329,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B15-B14</f>
         <v>-2.6315789473684002E-3</v>
@@ -14386,7 +14386,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>6.5789473684210004E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>155</v>
       </c>
@@ -14473,7 +14473,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>B18-B17</f>
         <v>0</v>
@@ -14530,42 +14530,42 @@
       <c r="V19"/>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B20">
-        <v>0.62920353982300803</v>
+        <v>0.34424778761061903</v>
       </c>
       <c r="C20">
-        <v>0.53982300884955703</v>
+        <v>0.29911504424778701</v>
       </c>
       <c r="D20">
-        <v>0.53008849557522097</v>
+        <v>0.30884955752212301</v>
       </c>
       <c r="E20">
-        <v>0.45132743362831801</v>
+        <v>0.26637168141592898</v>
       </c>
       <c r="F20">
-        <v>0.39026548672566302</v>
+        <v>0.20707964601769899</v>
       </c>
       <c r="G20">
-        <v>0.34955752212389302</v>
+        <v>0.17964601769911501</v>
       </c>
       <c r="H20">
-        <v>0.238938053097345</v>
+        <v>0.13628318584070701</v>
       </c>
       <c r="I20">
-        <v>0.19380530973451299</v>
+        <v>0.131858407079646</v>
       </c>
       <c r="J20">
-        <v>0.15752212389380499</v>
+        <v>9.6460176991150406E-2</v>
       </c>
       <c r="K20">
-        <v>5.7522123893805302E-2</v>
+        <v>3.3628318584070699E-2</v>
       </c>
       <c r="L20">
-        <v>1.7699115044247E-3</v>
+        <v>8.8495575221230003E-4</v>
       </c>
       <c r="M20"/>
       <c r="N20"/>
@@ -14579,42 +14579,42 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B21">
-        <v>0.623008849557522</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="C21">
-        <v>0.56548672566371605</v>
+        <v>0.569911504424778</v>
       </c>
       <c r="D21">
-        <v>0.50619469026548602</v>
+        <v>0.50442477876106195</v>
       </c>
       <c r="E21">
-        <v>0.50530973451327399</v>
+        <v>0.49734513274336201</v>
       </c>
       <c r="F21">
-        <v>0.376991150442477</v>
+        <v>0.367256637168141</v>
       </c>
       <c r="G21">
-        <v>0.36017699115044199</v>
+        <v>0.34601769911504399</v>
       </c>
       <c r="H21">
-        <v>0.30796460176991097</v>
+        <v>0.28672566371681402</v>
       </c>
       <c r="I21">
-        <v>0.25398230088495499</v>
+        <v>0.22743362831858399</v>
       </c>
       <c r="J21">
-        <v>0.224778761061946</v>
+        <v>0.18141592920353899</v>
       </c>
       <c r="K21">
-        <v>0.15221238938053</v>
+        <v>0.117699115044247</v>
       </c>
       <c r="L21">
-        <v>0.10353982300884899</v>
+        <v>6.2831858407079597E-2</v>
       </c>
       <c r="M21"/>
       <c r="N21"/>
@@ -14628,50 +14628,50 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>B21-B20</f>
-        <v>-6.1946902654860247E-3</v>
+        <v>0.287610619469027</v>
       </c>
       <c r="C22">
         <f t="shared" ref="C22:L22" si="6">C21-C20</f>
-        <v>2.5663716814159021E-2</v>
+        <v>0.27079646017699099</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
-        <v>-2.389380530973495E-2</v>
+        <v>0.19557522123893895</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>5.398230088495598E-2</v>
+        <v>0.23097345132743302</v>
       </c>
       <c r="F22">
         <f t="shared" si="6"/>
-        <v>-1.3274336283186028E-2</v>
+        <v>0.16017699115044201</v>
       </c>
       <c r="G22">
         <f t="shared" si="6"/>
-        <v>1.0619469026548978E-2</v>
+        <v>0.16637168141592898</v>
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
-        <v>6.9026548672565968E-2</v>
+        <v>0.15044247787610701</v>
       </c>
       <c r="I22">
         <f t="shared" si="6"/>
-        <v>6.0176991150442005E-2</v>
+        <v>9.5575221238937996E-2</v>
       </c>
       <c r="J22">
         <f t="shared" si="6"/>
-        <v>6.7256637168141009E-2</v>
+        <v>8.4955752212388588E-2</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>9.4690265486724698E-2</v>
+        <v>8.4070796460176303E-2</v>
       </c>
       <c r="L22">
         <f t="shared" si="6"/>
-        <v>0.1017699115044243</v>
+        <v>6.1946902654867297E-2</v>
       </c>
       <c r="M22"/>
       <c r="N22"/>
@@ -14685,7 +14685,7 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -14709,7 +14709,7 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -14758,7 +14758,7 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>153</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>0.18354687232057801</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>155</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>0.13564732230596499</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>B26-B25</f>
         <v>-2.0740963135398999E-2</v>
@@ -14891,7 +14891,7 @@
       <c r="V27"/>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>154</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>1.7599106310326799E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>155</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>4.76290289691053E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30">
         <f>B29-B28</f>
         <v>0.16623251898838981</v>
@@ -15024,7 +15024,7 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>156</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>0.19090746469935099</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>155</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>0.140017664537083</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>B32-B31</f>
         <v>-2.6837687689069967E-3</v>
@@ -15157,7 +15157,7 @@
       <c r="V33"/>
       <c r="W33"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>157</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>2.8306815731155999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>4.1150053627445303E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B36">
         <f>B35-B34</f>
         <v>8.1710379402921196E-2</v>
@@ -15290,7 +15290,7 @@
       <c r="V36"/>
       <c r="W36"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>158</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>2.1834972715244001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>155</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>2.8139001793280601E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B39">
         <f>B38-B37</f>
         <v>1.0650569578886101E-2</v>
@@ -15423,7 +15423,7 @@
       <c r="V39"/>
       <c r="W39"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>8.4356887877640001E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>155</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>1.947907308985E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <f>B41-B40</f>
         <v>-7.4964172181060001E-4</v>
@@ -15545,126 +15545,126 @@
         <v>-6.4877814787790006E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B43">
-        <v>0.75223240980849604</v>
+        <v>0.45191435477082198</v>
       </c>
       <c r="C43">
-        <v>0.65356347427977901</v>
+        <v>0.40093927343520602</v>
       </c>
       <c r="D43">
-        <v>0.62749804614068405</v>
+        <v>0.39481367223694902</v>
       </c>
       <c r="E43">
-        <v>0.54492299106543995</v>
+        <v>0.34961750255361401</v>
       </c>
       <c r="F43">
-        <v>0.47285197034527998</v>
+        <v>0.27892112580019501</v>
       </c>
       <c r="G43">
-        <v>0.40991988800809098</v>
+        <v>0.23686471417295399</v>
       </c>
       <c r="H43">
-        <v>0.287771805448783</v>
+        <v>0.17986370641204899</v>
       </c>
       <c r="I43">
-        <v>0.21966095128489699</v>
+        <v>0.15532759567260099</v>
       </c>
       <c r="J43">
-        <v>0.203807968566523</v>
+        <v>0.134506537493539</v>
       </c>
       <c r="K43">
-        <v>7.1869639867929394E-2</v>
+        <v>4.6163942497512003E-2</v>
       </c>
       <c r="L43">
-        <v>1.0268715673047501E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8.1632858704343992E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B44">
-        <v>0.73668125318101796</v>
+        <v>0.74347147090488996</v>
       </c>
       <c r="C44">
-        <v>0.67290146818733898</v>
+        <v>0.67664885963832999</v>
       </c>
       <c r="D44">
-        <v>0.60556406838255095</v>
+        <v>0.60458471447504802</v>
       </c>
       <c r="E44">
-        <v>0.57406981709673199</v>
+        <v>0.56615290486784897</v>
       </c>
       <c r="F44">
-        <v>0.460372896000529</v>
+        <v>0.44917094014082898</v>
       </c>
       <c r="G44">
-        <v>0.43772213083950301</v>
+        <v>0.42733169973583102</v>
       </c>
       <c r="H44">
-        <v>0.37075010083362803</v>
+        <v>0.35347185537492398</v>
       </c>
       <c r="I44">
-        <v>0.31640083121055801</v>
+        <v>0.29920174885183198</v>
       </c>
       <c r="J44">
-        <v>0.26534907356737603</v>
+        <v>0.234046338367176</v>
       </c>
       <c r="K44">
-        <v>0.18526466432123401</v>
+        <v>0.161633927837739</v>
       </c>
       <c r="L44">
-        <v>0.12970266093883001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0.100092752284885</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <f>B44-B43</f>
-        <v>-1.555115662747808E-2</v>
+        <v>0.29155711613406798</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" ref="C45:L45" si="13">C44-C43</f>
-        <v>1.9337993907559969E-2</v>
+        <v>0.27570958620312397</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="13"/>
-        <v>-2.1933977758133105E-2</v>
+        <v>0.209771042238099</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="13"/>
-        <v>2.9146826031292039E-2</v>
+        <v>0.21653540231423496</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="13"/>
-        <v>-1.2479074344750984E-2</v>
+        <v>0.17024981434063396</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="13"/>
-        <v>2.7802242831412027E-2</v>
+        <v>0.19046698556287703</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="13"/>
-        <v>8.2978295384845024E-2</v>
+        <v>0.17360814896287499</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="13"/>
-        <v>9.6739879925661021E-2</v>
+        <v>0.143874153179231</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="13"/>
-        <v>6.1541105000853025E-2</v>
+        <v>9.9539800873637008E-2</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="13"/>
-        <v>0.11339502445330461</v>
+        <v>0.115469985340227</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="13"/>
-        <v>0.11943394526578251</v>
+        <v>9.19294664144506E-2</v>
       </c>
     </row>
   </sheetData>

--- a/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
+++ b/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Restaurants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\SemEval-14\Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B840DF-FEA1-489E-B109-4FFD2225E3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252F574C-5A2A-42EC-9C1E-7469C30757D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="3000" windowWidth="21210" windowHeight="12990" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1687,7 +1687,7 @@
         <c:axId val="1057648927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
+          <c:max val="0.30000000000000004"/>
           <c:min val="-0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1792,7 +1792,7 @@
         <c:crossAx val="1057650367"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1812,10 +1812,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7425710274308539"/>
+          <c:x val="0.71006519796727541"/>
           <c:y val="0.16449558936711858"/>
-          <c:w val="0.24210190657335046"/>
-          <c:h val="0.53065863477591613"/>
+          <c:w val="0.27460792799836192"/>
+          <c:h val="0.48851298760068784"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2984,7 +2984,7 @@
         <c:axId val="1057648927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
+          <c:max val="0.30000000000000004"/>
           <c:min val="-0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3089,7 +3089,7 @@
         <c:crossAx val="1057650367"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -3109,9 +3109,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73681986505763253"/>
+          <c:x val="0.7071917384778259"/>
           <c:y val="0.16454544513717739"/>
-          <c:w val="0.23882175400090638"/>
+          <c:w val="0.26844977946909276"/>
           <c:h val="0.51562108674471863"/>
         </c:manualLayout>
       </c:layout>

--- a/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
+++ b/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\SemEval-14\Restaurants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252F574C-5A2A-42EC-9C1E-7469C30757D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FCC8E-EBBE-4178-9D1D-DA3578C73253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="163">
   <si>
     <t>metric</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>cat</t>
+  </si>
+  <si>
+    <t>bert-e2e-absa</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1973,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$43</c:f>
+              <c:f>Sheet2!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2005,7 +2008,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$24:$L$24</c:f>
+              <c:f>Sheet2!$B$27:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2047,7 +2050,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$45:$L$45</c:f>
+              <c:f>Sheet2!$B$48:$L$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2099,7 +2102,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$31</c:f>
+              <c:f>Sheet2!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2176,7 +2179,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$33:$L$33</c:f>
+              <c:f>Sheet2!$B$36:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2305,7 +2308,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$27:$L$27</c:f>
+              <c:f>Sheet2!$B$30:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2434,7 +2437,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$30:$L$30</c:f>
+              <c:f>Sheet2!$B$33:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2561,7 +2564,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$36:$L$36</c:f>
+              <c:f>Sheet2!$B$39:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2690,7 +2693,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$39:$L$39</c:f>
+              <c:f>Sheet2!$B$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2817,7 +2820,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$42:$L$42</c:f>
+              <c:f>Sheet2!$B$45:$L$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4283,7 +4286,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>588533</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>189380</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4321,7 +4324,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>173915</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13615,10 +13618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FFB291-E4F5-4E4E-B884-4FDFA1C7897B}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14686,17 +14689,42 @@
       <c r="W22"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
+      <c r="A23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="C23">
+        <v>0.542760942760942</v>
+      </c>
+      <c r="D23">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="E23">
+        <v>0.427609427609427</v>
+      </c>
+      <c r="F23">
+        <v>0.367003367003367</v>
+      </c>
+      <c r="G23">
+        <v>0.28484848484848402</v>
+      </c>
+      <c r="H23">
+        <v>0.23097643097643</v>
+      </c>
+      <c r="I23">
+        <v>0.16969696969696901</v>
+      </c>
+      <c r="J23">
+        <v>0.135353535353535</v>
+      </c>
+      <c r="K23">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
@@ -14711,40 +14739,40 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="B24">
+        <v>0.58653198653198602</v>
+      </c>
+      <c r="C24">
+        <v>0.52794612794612705</v>
+      </c>
+      <c r="D24">
+        <v>0.457239057239057</v>
+      </c>
+      <c r="E24">
+        <v>0.412121212121212</v>
+      </c>
+      <c r="F24">
+        <v>0.33737373737373699</v>
+      </c>
+      <c r="G24">
+        <v>0.29225589225589199</v>
+      </c>
+      <c r="H24">
+        <v>0.23973063973063899</v>
+      </c>
+      <c r="I24">
+        <v>0.173737373737373</v>
+      </c>
+      <c r="J24">
+        <v>0.111784511784511</v>
+      </c>
+      <c r="K24">
+        <v>5.5218855218855202E-2</v>
+      </c>
+      <c r="L24">
         <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0.1</v>
-      </c>
-      <c r="D24">
-        <v>0.2</v>
-      </c>
-      <c r="E24">
-        <v>0.3</v>
-      </c>
-      <c r="F24">
-        <v>0.4</v>
-      </c>
-      <c r="G24">
-        <v>0.5</v>
-      </c>
-      <c r="H24">
-        <v>0.6</v>
-      </c>
-      <c r="I24">
-        <v>0.7</v>
-      </c>
-      <c r="J24">
-        <v>0.8</v>
-      </c>
-      <c r="K24">
-        <v>0.9</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
       </c>
       <c r="M24"/>
       <c r="N24"/>
@@ -14759,125 +14787,122 @@
       <c r="W24"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="B25">
-        <v>0.213522340781124</v>
+        <f>B24-B23</f>
+        <v>-1.952861952861995E-2</v>
       </c>
       <c r="C25">
-        <v>0.211542632716479</v>
+        <f t="shared" ref="C25:L25" si="7">C24-C23</f>
+        <v>-1.4814814814814947E-2</v>
       </c>
       <c r="D25">
-        <v>0.20578170649824901</v>
+        <f t="shared" si="7"/>
+        <v>-9.4276094276090072E-3</v>
       </c>
       <c r="E25">
-        <v>0.20312999760262199</v>
+        <f t="shared" si="7"/>
+        <v>-1.5488215488214996E-2</v>
       </c>
       <c r="F25">
-        <v>0.20442743301045899</v>
+        <f t="shared" si="7"/>
+        <v>-2.9629629629630005E-2</v>
       </c>
       <c r="G25">
-        <v>0.19828403033491099</v>
+        <f t="shared" si="7"/>
+        <v>7.4074074074079732E-3</v>
       </c>
       <c r="H25">
-        <v>0.19825541654755999</v>
+        <f t="shared" si="7"/>
+        <v>8.7542087542089864E-3</v>
       </c>
       <c r="I25">
-        <v>0.194248687576557</v>
+        <f t="shared" si="7"/>
+        <v>4.0404040404039832E-3</v>
       </c>
       <c r="J25">
-        <v>0.18784159962861499</v>
+        <f t="shared" si="7"/>
+        <v>-2.3569023569024003E-2</v>
       </c>
       <c r="K25">
-        <v>0.18648095578562199</v>
+        <f t="shared" si="7"/>
+        <v>-1.1447811447811394E-2</v>
       </c>
       <c r="L25">
-        <v>0.18354687232057801</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26">
-        <v>0.19278137764572501</v>
-      </c>
-      <c r="C26">
-        <v>0.187109983488115</v>
-      </c>
-      <c r="D26">
-        <v>0.18320866441796599</v>
-      </c>
-      <c r="E26">
-        <v>0.176335606441124</v>
-      </c>
-      <c r="F26">
-        <v>0.172273341715209</v>
-      </c>
-      <c r="G26">
-        <v>0.164304511902467</v>
-      </c>
-      <c r="H26">
-        <v>0.15484100578967799</v>
-      </c>
-      <c r="I26">
-        <v>0.15347110703223599</v>
-      </c>
-      <c r="J26">
-        <v>0.14351969731483299</v>
-      </c>
-      <c r="K26">
-        <v>0.14431599406107501</v>
-      </c>
-      <c r="L26">
-        <v>0.13564732230596499</v>
-      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B27">
-        <f>B26-B25</f>
-        <v>-2.0740963135398999E-2</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:L27" si="7">C26-C25</f>
-        <v>-2.4432649228363995E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D27">
-        <f t="shared" si="7"/>
-        <v>-2.2573042080283018E-2</v>
+        <v>0.2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="7"/>
-        <v>-2.6794391161497982E-2</v>
+        <v>0.3</v>
       </c>
       <c r="F27">
-        <f t="shared" si="7"/>
-        <v>-3.2154091295249987E-2</v>
+        <v>0.4</v>
       </c>
       <c r="G27">
-        <f t="shared" si="7"/>
-        <v>-3.3979518432443984E-2</v>
+        <v>0.5</v>
       </c>
       <c r="H27">
-        <f t="shared" si="7"/>
-        <v>-4.3414410757881994E-2</v>
+        <v>0.6</v>
       </c>
       <c r="I27">
-        <f t="shared" si="7"/>
-        <v>-4.0777580544321013E-2</v>
+        <v>0.7</v>
       </c>
       <c r="J27">
-        <f t="shared" si="7"/>
-        <v>-4.4321902313781997E-2</v>
+        <v>0.8</v>
       </c>
       <c r="K27">
-        <f t="shared" si="7"/>
-        <v>-4.2164961724546979E-2</v>
+        <v>0.9</v>
       </c>
       <c r="L27">
-        <f t="shared" si="7"/>
-        <v>-4.7899550014613018E-2</v>
+        <v>1</v>
       </c>
       <c r="M27"/>
       <c r="N27"/>
@@ -14893,40 +14918,40 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28">
-        <v>6.13298755408202E-2</v>
+        <v>0.213522340781124</v>
       </c>
       <c r="C28">
-        <v>4.6831690045251097E-2</v>
+        <v>0.211542632716479</v>
       </c>
       <c r="D28">
-        <v>3.7724229337277003E-2</v>
+        <v>0.20578170649824901</v>
       </c>
       <c r="E28">
-        <v>3.3474356129871798E-2</v>
+        <v>0.20312999760262199</v>
       </c>
       <c r="F28">
-        <v>4.0089493462535403E-2</v>
+        <v>0.20442743301045899</v>
       </c>
       <c r="G28">
-        <v>3.4104640950101503E-2</v>
+        <v>0.19828403033491099</v>
       </c>
       <c r="H28">
-        <v>2.29921334574501E-2</v>
+        <v>0.19825541654755999</v>
       </c>
       <c r="I28">
-        <v>2.65722237485983E-2</v>
+        <v>0.194248687576557</v>
       </c>
       <c r="J28">
-        <v>2.0844978355843001E-2</v>
+        <v>0.18784159962861499</v>
       </c>
       <c r="K28">
-        <v>1.7757214340891898E-2</v>
+        <v>0.18648095578562199</v>
       </c>
       <c r="L28">
-        <v>1.7599106310326799E-2</v>
+        <v>0.18354687232057801</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -14934,83 +14959,83 @@
         <v>155</v>
       </c>
       <c r="B29">
-        <v>0.22756239452921001</v>
+        <v>0.19278137764572501</v>
       </c>
       <c r="C29">
-        <v>0.17847814291883601</v>
+        <v>0.187109983488115</v>
       </c>
       <c r="D29">
-        <v>0.14142618001403801</v>
+        <v>0.18320866441796599</v>
       </c>
       <c r="E29">
-        <v>0.12828233571466499</v>
+        <v>0.176335606441124</v>
       </c>
       <c r="F29">
-        <v>0.13561649709600301</v>
+        <v>0.172273341715209</v>
       </c>
       <c r="G29">
-        <v>0.106870285879638</v>
+        <v>0.164304511902467</v>
       </c>
       <c r="H29">
-        <v>7.7541678276457998E-2</v>
+        <v>0.15484100578967799</v>
       </c>
       <c r="I29">
-        <v>8.4031468404236004E-2</v>
+        <v>0.15347110703223599</v>
       </c>
       <c r="J29">
-        <v>5.0673166334384498E-2</v>
+        <v>0.14351969731483299</v>
       </c>
       <c r="K29">
-        <v>4.4618277761586202E-2</v>
+        <v>0.14431599406107501</v>
       </c>
       <c r="L29">
-        <v>4.76290289691053E-2</v>
+        <v>0.13564732230596499</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30">
         <f>B29-B28</f>
-        <v>0.16623251898838981</v>
+        <v>-2.0740963135398999E-2</v>
       </c>
       <c r="C30">
         <f t="shared" ref="C30:L30" si="8">C29-C28</f>
-        <v>0.13164645287358492</v>
+        <v>-2.4432649228363995E-2</v>
       </c>
       <c r="D30">
         <f t="shared" si="8"/>
-        <v>0.103701950676761</v>
+        <v>-2.2573042080283018E-2</v>
       </c>
       <c r="E30">
         <f t="shared" si="8"/>
-        <v>9.4807979584793201E-2</v>
+        <v>-2.6794391161497982E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="8"/>
-        <v>9.5527003633467611E-2</v>
+        <v>-3.2154091295249987E-2</v>
       </c>
       <c r="G30">
         <f t="shared" si="8"/>
-        <v>7.2765644929536494E-2</v>
+        <v>-3.3979518432443984E-2</v>
       </c>
       <c r="H30">
         <f t="shared" si="8"/>
-        <v>5.4549544819007895E-2</v>
+        <v>-4.3414410757881994E-2</v>
       </c>
       <c r="I30">
         <f t="shared" si="8"/>
-        <v>5.7459244655637703E-2</v>
+        <v>-4.0777580544321013E-2</v>
       </c>
       <c r="J30">
         <f t="shared" si="8"/>
-        <v>2.9828187978541497E-2</v>
+        <v>-4.4321902313781997E-2</v>
       </c>
       <c r="K30">
         <f t="shared" si="8"/>
-        <v>2.6861063420694303E-2</v>
+        <v>-4.2164961724546979E-2</v>
       </c>
       <c r="L30">
         <f t="shared" si="8"/>
-        <v>3.0029922658778501E-2</v>
+        <v>-4.7899550014613018E-2</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -15026,40 +15051,40 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B31">
-        <v>0.23764854847436501</v>
+        <v>6.13298755408202E-2</v>
       </c>
       <c r="C31">
-        <v>0.23251305656389401</v>
+        <v>4.6831690045251097E-2</v>
       </c>
       <c r="D31">
-        <v>0.22772208189829199</v>
+        <v>3.7724229337277003E-2</v>
       </c>
       <c r="E31">
-        <v>0.22249399951166701</v>
+        <v>3.3474356129871798E-2</v>
       </c>
       <c r="F31">
-        <v>0.21451257906943899</v>
+        <v>4.0089493462535403E-2</v>
       </c>
       <c r="G31">
-        <v>0.213557829268953</v>
+        <v>3.4104640950101503E-2</v>
       </c>
       <c r="H31">
-        <v>0.20790481008548301</v>
+        <v>2.29921334574501E-2</v>
       </c>
       <c r="I31">
-        <v>0.20210640737407701</v>
+        <v>2.65722237485983E-2</v>
       </c>
       <c r="J31">
-        <v>0.20177364808648399</v>
+        <v>2.0844978355843001E-2</v>
       </c>
       <c r="K31">
-        <v>0.199917572465618</v>
+        <v>1.7757214340891898E-2</v>
       </c>
       <c r="L31">
-        <v>0.19090746469935099</v>
+        <v>1.7599106310326799E-2</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -15067,83 +15092,83 @@
         <v>155</v>
       </c>
       <c r="B32">
-        <v>0.23496477970545801</v>
+        <v>0.22756239452921001</v>
       </c>
       <c r="C32">
-        <v>0.22743192892585801</v>
+        <v>0.17847814291883601</v>
       </c>
       <c r="D32">
-        <v>0.21786087243051</v>
+        <v>0.14142618001403801</v>
       </c>
       <c r="E32">
-        <v>0.209456933874446</v>
+        <v>0.12828233571466499</v>
       </c>
       <c r="F32">
-        <v>0.19883047537975199</v>
+        <v>0.13561649709600301</v>
       </c>
       <c r="G32">
-        <v>0.187432223939519</v>
+        <v>0.106870285879638</v>
       </c>
       <c r="H32">
-        <v>0.177907725668808</v>
+        <v>7.7541678276457998E-2</v>
       </c>
       <c r="I32">
-        <v>0.167537554651638</v>
+        <v>8.4031468404236004E-2</v>
       </c>
       <c r="J32">
-        <v>0.15642238717585499</v>
+        <v>5.0673166334384498E-2</v>
       </c>
       <c r="K32">
-        <v>0.14968982944793199</v>
+        <v>4.4618277761586202E-2</v>
       </c>
       <c r="L32">
-        <v>0.140017664537083</v>
+        <v>4.76290289691053E-2</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>B32-B31</f>
-        <v>-2.6837687689069967E-3</v>
+        <v>0.16623251898838981</v>
       </c>
       <c r="C33">
         <f t="shared" ref="C33:L33" si="9">C32-C31</f>
-        <v>-5.0811276380360038E-3</v>
+        <v>0.13164645287358492</v>
       </c>
       <c r="D33">
         <f t="shared" si="9"/>
-        <v>-9.8612094677819895E-3</v>
+        <v>0.103701950676761</v>
       </c>
       <c r="E33">
         <f t="shared" si="9"/>
-        <v>-1.3037065637221013E-2</v>
+        <v>9.4807979584793201E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="9"/>
-        <v>-1.5682103689687005E-2</v>
+        <v>9.5527003633467611E-2</v>
       </c>
       <c r="G33">
         <f t="shared" si="9"/>
-        <v>-2.6125605329434004E-2</v>
+        <v>7.2765644929536494E-2</v>
       </c>
       <c r="H33">
         <f t="shared" si="9"/>
-        <v>-2.9997084416675007E-2</v>
+        <v>5.4549544819007895E-2</v>
       </c>
       <c r="I33">
         <f t="shared" si="9"/>
-        <v>-3.4568852722439009E-2</v>
+        <v>5.7459244655637703E-2</v>
       </c>
       <c r="J33">
         <f t="shared" si="9"/>
-        <v>-4.5351260910628993E-2</v>
+        <v>2.9828187978541497E-2</v>
       </c>
       <c r="K33">
         <f t="shared" si="9"/>
-        <v>-5.0227743017686011E-2</v>
+        <v>2.6861063420694303E-2</v>
       </c>
       <c r="L33">
         <f t="shared" si="9"/>
-        <v>-5.088980016226799E-2</v>
+        <v>3.0029922658778501E-2</v>
       </c>
       <c r="M33"/>
       <c r="N33"/>
@@ -15159,40 +15184,40 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34">
-        <v>3.0264816429798999E-3</v>
+        <v>0.23764854847436501</v>
       </c>
       <c r="C34">
-        <v>3.4420393339497E-3</v>
+        <v>0.23251305656389401</v>
       </c>
       <c r="D34">
-        <v>3.1958142244747001E-3</v>
+        <v>0.22772208189829199</v>
       </c>
       <c r="E34">
-        <v>2.4087015827343001E-3</v>
+        <v>0.22249399951166701</v>
       </c>
       <c r="F34">
-        <v>2.1895054588218E-3</v>
+        <v>0.21451257906943899</v>
       </c>
       <c r="G34">
-        <v>3.5049914059662002E-3</v>
+        <v>0.213557829268953</v>
       </c>
       <c r="H34">
-        <v>3.1281768704151999E-3</v>
+        <v>0.20790481008548301</v>
       </c>
       <c r="I34">
-        <v>2.1950337879011999E-3</v>
+        <v>0.20210640737407701</v>
       </c>
       <c r="J34">
-        <v>4.0951245613786999E-3</v>
+        <v>0.20177364808648399</v>
       </c>
       <c r="K34">
-        <v>1.4688681834332E-3</v>
+        <v>0.199917572465618</v>
       </c>
       <c r="L34">
-        <v>2.8306815731155999E-3</v>
+        <v>0.19090746469935099</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -15200,83 +15225,83 @@
         <v>155</v>
       </c>
       <c r="B35">
-        <v>8.4736861045901099E-2</v>
+        <v>0.23496477970545801</v>
       </c>
       <c r="C35">
-        <v>7.7530034496721495E-2</v>
+        <v>0.22743192892585801</v>
       </c>
       <c r="D35">
-        <v>7.3136048787364502E-2</v>
+        <v>0.21786087243051</v>
       </c>
       <c r="E35">
-        <v>7.0765879428003206E-2</v>
+        <v>0.209456933874446</v>
       </c>
       <c r="F35">
-        <v>6.8792543505090606E-2</v>
+        <v>0.19883047537975199</v>
       </c>
       <c r="G35">
-        <v>6.1470643010186198E-2</v>
+        <v>0.187432223939519</v>
       </c>
       <c r="H35">
-        <v>5.37484033978761E-2</v>
+        <v>0.177907725668808</v>
       </c>
       <c r="I35">
-        <v>5.1914890360894299E-2</v>
+        <v>0.167537554651638</v>
       </c>
       <c r="J35">
-        <v>4.8894749551186903E-2</v>
+        <v>0.15642238717585499</v>
       </c>
       <c r="K35">
-        <v>4.5061707569043701E-2</v>
+        <v>0.14968982944793199</v>
       </c>
       <c r="L35">
-        <v>4.1150053627445303E-2</v>
+        <v>0.140017664537083</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B36">
         <f>B35-B34</f>
-        <v>8.1710379402921196E-2</v>
+        <v>-2.6837687689069967E-3</v>
       </c>
       <c r="C36">
         <f t="shared" ref="C36:L36" si="10">C35-C34</f>
-        <v>7.40879951627718E-2</v>
+        <v>-5.0811276380360038E-3</v>
       </c>
       <c r="D36">
         <f t="shared" si="10"/>
-        <v>6.9940234562889808E-2</v>
+        <v>-9.8612094677819895E-3</v>
       </c>
       <c r="E36">
         <f t="shared" si="10"/>
-        <v>6.8357177845268902E-2</v>
+        <v>-1.3037065637221013E-2</v>
       </c>
       <c r="F36">
         <f t="shared" si="10"/>
-        <v>6.6603038046268812E-2</v>
+        <v>-1.5682103689687005E-2</v>
       </c>
       <c r="G36">
         <f t="shared" si="10"/>
-        <v>5.796565160422E-2</v>
+        <v>-2.6125605329434004E-2</v>
       </c>
       <c r="H36">
         <f t="shared" si="10"/>
-        <v>5.0620226527460899E-2</v>
+        <v>-2.9997084416675007E-2</v>
       </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>4.9719856572993097E-2</v>
+        <v>-3.4568852722439009E-2</v>
       </c>
       <c r="J36">
         <f t="shared" si="10"/>
-        <v>4.4799624989808204E-2</v>
+        <v>-4.5351260910628993E-2</v>
       </c>
       <c r="K36">
         <f t="shared" si="10"/>
-        <v>4.3592839385610503E-2</v>
+        <v>-5.0227743017686011E-2</v>
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>3.8319372054329705E-2</v>
+        <v>-5.088980016226799E-2</v>
       </c>
       <c r="M36"/>
       <c r="N36"/>
@@ -15292,40 +15317,40 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B37">
-        <v>2.36726670294744E-2</v>
+        <v>3.0264816429798999E-3</v>
       </c>
       <c r="C37">
-        <v>2.5238400495096801E-2</v>
+        <v>3.4420393339497E-3</v>
       </c>
       <c r="D37">
-        <v>2.54422117627441E-2</v>
+        <v>3.1958142244747001E-3</v>
       </c>
       <c r="E37">
-        <v>2.1726527273189501E-2</v>
+        <v>2.4087015827343001E-3</v>
       </c>
       <c r="F37">
-        <v>2.3858144844693101E-2</v>
+        <v>2.1895054588218E-3</v>
       </c>
       <c r="G37">
-        <v>2.5199850601999599E-2</v>
+        <v>3.5049914059662002E-3</v>
       </c>
       <c r="H37">
-        <v>2.31053385068813E-2</v>
+        <v>3.1281768704151999E-3</v>
       </c>
       <c r="I37">
-        <v>2.1966167457136299E-2</v>
+        <v>2.1950337879011999E-3</v>
       </c>
       <c r="J37">
-        <v>2.2212950755579702E-2</v>
+        <v>4.0951245613786999E-3</v>
       </c>
       <c r="K37">
-        <v>2.3087423439937499E-2</v>
+        <v>1.4688681834332E-3</v>
       </c>
       <c r="L37">
-        <v>2.1834972715244001E-2</v>
+        <v>2.8306815731155999E-3</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -15333,83 +15358,83 @@
         <v>155</v>
       </c>
       <c r="B38">
-        <v>3.4323236608360501E-2</v>
+        <v>8.4736861045901099E-2</v>
       </c>
       <c r="C38">
-        <v>3.3465365878077899E-2</v>
+        <v>7.7530034496721495E-2</v>
       </c>
       <c r="D38">
-        <v>3.1724160407638501E-2</v>
+        <v>7.3136048787364502E-2</v>
       </c>
       <c r="E38">
-        <v>3.2251468113414901E-2</v>
+        <v>7.0765879428003206E-2</v>
       </c>
       <c r="F38">
-        <v>3.2108270665571099E-2</v>
+        <v>6.8792543505090606E-2</v>
       </c>
       <c r="G38">
-        <v>3.09372506850716E-2</v>
+        <v>6.1470643010186198E-2</v>
       </c>
       <c r="H38">
-        <v>3.0413784875115198E-2</v>
+        <v>5.37484033978761E-2</v>
       </c>
       <c r="I38">
-        <v>2.9078606594822001E-2</v>
+        <v>5.1914890360894299E-2</v>
       </c>
       <c r="J38">
-        <v>2.9358003228658499E-2</v>
+        <v>4.8894749551186903E-2</v>
       </c>
       <c r="K38">
-        <v>2.97152520590027E-2</v>
+        <v>4.5061707569043701E-2</v>
       </c>
       <c r="L38">
-        <v>2.8139001793280601E-2</v>
+        <v>4.1150053627445303E-2</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B39">
         <f>B38-B37</f>
-        <v>1.0650569578886101E-2</v>
+        <v>8.1710379402921196E-2</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:L39" si="11">C38-C37</f>
-        <v>8.2269653829810975E-3</v>
+        <v>7.40879951627718E-2</v>
       </c>
       <c r="D39">
         <f t="shared" si="11"/>
-        <v>6.2819486448944008E-3</v>
+        <v>6.9940234562889808E-2</v>
       </c>
       <c r="E39">
         <f t="shared" si="11"/>
-        <v>1.05249408402254E-2</v>
+        <v>6.8357177845268902E-2</v>
       </c>
       <c r="F39">
         <f t="shared" si="11"/>
-        <v>8.250125820877998E-3</v>
+        <v>6.6603038046268812E-2</v>
       </c>
       <c r="G39">
         <f t="shared" si="11"/>
-        <v>5.7374000830720008E-3</v>
+        <v>5.796565160422E-2</v>
       </c>
       <c r="H39">
         <f t="shared" si="11"/>
-        <v>7.3084463682338979E-3</v>
+        <v>5.0620226527460899E-2</v>
       </c>
       <c r="I39">
         <f t="shared" si="11"/>
-        <v>7.1124391376857013E-3</v>
+        <v>4.9719856572993097E-2</v>
       </c>
       <c r="J39">
         <f t="shared" si="11"/>
-        <v>7.1450524730787973E-3</v>
+        <v>4.4799624989808204E-2</v>
       </c>
       <c r="K39">
         <f t="shared" si="11"/>
-        <v>6.6278286190652007E-3</v>
+        <v>4.3592839385610503E-2</v>
       </c>
       <c r="L39">
         <f t="shared" si="11"/>
-        <v>6.3040290780366007E-3</v>
+        <v>3.8319372054329705E-2</v>
       </c>
       <c r="M39"/>
       <c r="N39"/>
@@ -15425,40 +15450,40 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40">
-        <v>1.0563361093587E-3</v>
+        <v>2.36726670294744E-2</v>
       </c>
       <c r="C40">
-        <v>1.4120454952217E-3</v>
+        <v>2.5238400495096801E-2</v>
       </c>
       <c r="D40">
-        <v>2.5046560056180001E-4</v>
+        <v>2.54422117627441E-2</v>
       </c>
       <c r="E40">
-        <v>5.7163006194349997E-4</v>
+        <v>2.1726527273189501E-2</v>
       </c>
       <c r="F40">
-        <v>8.1993578206620004E-4</v>
+        <v>2.3858144844693101E-2</v>
       </c>
       <c r="G40">
-        <v>3.8269485282970003E-4</v>
+        <v>2.5199850601999599E-2</v>
       </c>
       <c r="H40">
-        <v>3.0375946225560998E-3</v>
+        <v>2.31053385068813E-2</v>
       </c>
       <c r="I40">
-        <v>5.6945336617289998E-4</v>
+        <v>2.1966167457136299E-2</v>
       </c>
       <c r="J40">
-        <v>8.0587641404510004E-4</v>
+        <v>2.2212950755579702E-2</v>
       </c>
       <c r="K40">
-        <v>1.3092980446956001E-3</v>
+        <v>2.3087423439937499E-2</v>
       </c>
       <c r="L40">
-        <v>8.4356887877640001E-4</v>
+        <v>2.1834972715244001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -15466,121 +15491,132 @@
         <v>155</v>
       </c>
       <c r="B41">
-        <v>3.0669438754809999E-4</v>
+        <v>3.4323236608360501E-2</v>
       </c>
       <c r="C41">
-        <v>8.5334734741480001E-4</v>
+        <v>3.3465365878077899E-2</v>
       </c>
       <c r="D41">
-        <v>1.3360008381429001E-3</v>
+        <v>3.1724160407638501E-2</v>
       </c>
       <c r="E41">
-        <v>4.1654947103630002E-4</v>
+        <v>3.2251468113414901E-2</v>
       </c>
       <c r="F41">
-        <v>1.1396002205638E-3</v>
+        <v>3.2108270665571099E-2</v>
       </c>
       <c r="G41">
-        <v>2.5214872540260002E-4</v>
-      </c>
-      <c r="H41" s="2">
-        <v>8.6319129942330101E-5</v>
+        <v>3.09372506850716E-2</v>
+      </c>
+      <c r="H41">
+        <v>3.0413784875115198E-2</v>
       </c>
       <c r="I41">
-        <v>2.2313171399580001E-4</v>
+        <v>2.9078606594822001E-2</v>
       </c>
       <c r="J41">
-        <v>1.4078043732529999E-4</v>
+        <v>2.9358003228658499E-2</v>
       </c>
       <c r="K41">
-        <v>1.329653595398E-4</v>
+        <v>2.97152520590027E-2</v>
       </c>
       <c r="L41">
-        <v>1.947907308985E-4</v>
+        <v>2.8139001793280601E-2</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
+      <c r="B42">
         <f>B41-B40</f>
-        <v>-7.4964172181060001E-4</v>
-      </c>
-      <c r="C42" s="1">
+        <v>1.0650569578886101E-2</v>
+      </c>
+      <c r="C42">
         <f t="shared" ref="C42:L42" si="12">C41-C40</f>
-        <v>-5.5869814780690002E-4</v>
-      </c>
-      <c r="D42" s="1">
+        <v>8.2269653829810975E-3</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="12"/>
-        <v>1.0855352375811001E-3</v>
-      </c>
-      <c r="E42" s="1">
+        <v>6.2819486448944008E-3</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="12"/>
-        <v>-1.5508059090719995E-4</v>
-      </c>
-      <c r="F42" s="1">
+        <v>1.05249408402254E-2</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="12"/>
-        <v>3.1966443849759999E-4</v>
-      </c>
-      <c r="G42" s="1">
+        <v>8.250125820877998E-3</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="12"/>
-        <v>-1.3054612742710001E-4</v>
-      </c>
-      <c r="H42" s="1">
+        <v>5.7374000830720008E-3</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="12"/>
-        <v>-2.9512754926137698E-3</v>
-      </c>
-      <c r="I42" s="1">
+        <v>7.3084463682338979E-3</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="12"/>
-        <v>-3.463216521771E-4</v>
-      </c>
-      <c r="J42" s="1">
+        <v>7.1124391376857013E-3</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="12"/>
-        <v>-6.6509597671980008E-4</v>
-      </c>
-      <c r="K42" s="1">
+        <v>7.1450524730787973E-3</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="12"/>
-        <v>-1.1763326851558001E-3</v>
-      </c>
-      <c r="L42" s="1">
+        <v>6.6278286190652007E-3</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="12"/>
-        <v>-6.4877814787790006E-4</v>
-      </c>
+        <v>6.3040290780366007E-3</v>
+      </c>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B43">
-        <v>0.45191435477082198</v>
+        <v>1.0563361093587E-3</v>
       </c>
       <c r="C43">
-        <v>0.40093927343520602</v>
+        <v>1.4120454952217E-3</v>
       </c>
       <c r="D43">
-        <v>0.39481367223694902</v>
+        <v>2.5046560056180001E-4</v>
       </c>
       <c r="E43">
-        <v>0.34961750255361401</v>
+        <v>5.7163006194349997E-4</v>
       </c>
       <c r="F43">
-        <v>0.27892112580019501</v>
+        <v>8.1993578206620004E-4</v>
       </c>
       <c r="G43">
-        <v>0.23686471417295399</v>
+        <v>3.8269485282970003E-4</v>
       </c>
       <c r="H43">
-        <v>0.17986370641204899</v>
+        <v>3.0375946225560998E-3</v>
       </c>
       <c r="I43">
-        <v>0.15532759567260099</v>
+        <v>5.6945336617289998E-4</v>
       </c>
       <c r="J43">
-        <v>0.134506537493539</v>
+        <v>8.0587641404510004E-4</v>
       </c>
       <c r="K43">
-        <v>4.6163942497512003E-2</v>
+        <v>1.3092980446956001E-3</v>
       </c>
       <c r="L43">
-        <v>8.1632858704343992E-3</v>
+        <v>8.4356887877640001E-4</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -15588,83 +15624,327 @@
         <v>155</v>
       </c>
       <c r="B44">
-        <v>0.74347147090488996</v>
+        <v>3.0669438754809999E-4</v>
       </c>
       <c r="C44">
-        <v>0.67664885963832999</v>
+        <v>8.5334734741480001E-4</v>
       </c>
       <c r="D44">
-        <v>0.60458471447504802</v>
+        <v>1.3360008381429001E-3</v>
       </c>
       <c r="E44">
-        <v>0.56615290486784897</v>
+        <v>4.1654947103630002E-4</v>
       </c>
       <c r="F44">
-        <v>0.44917094014082898</v>
+        <v>1.1396002205638E-3</v>
       </c>
       <c r="G44">
-        <v>0.42733169973583102</v>
-      </c>
-      <c r="H44">
-        <v>0.35347185537492398</v>
+        <v>2.5214872540260002E-4</v>
+      </c>
+      <c r="H44" s="2">
+        <v>8.6319129942330101E-5</v>
       </c>
       <c r="I44">
-        <v>0.29920174885183198</v>
+        <v>2.2313171399580001E-4</v>
       </c>
       <c r="J44">
-        <v>0.234046338367176</v>
+        <v>1.4078043732529999E-4</v>
       </c>
       <c r="K44">
-        <v>0.161633927837739</v>
+        <v>1.329653595398E-4</v>
       </c>
       <c r="L44">
-        <v>0.100092752284885</v>
+        <v>1.947907308985E-4</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <f>B44-B43</f>
-        <v>0.29155711613406798</v>
+        <v>-7.4964172181060001E-4</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" ref="C45:L45" si="13">C44-C43</f>
-        <v>0.27570958620312397</v>
+        <v>-5.5869814780690002E-4</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="13"/>
-        <v>0.209771042238099</v>
+        <v>1.0855352375811001E-3</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="13"/>
-        <v>0.21653540231423496</v>
+        <v>-1.5508059090719995E-4</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="13"/>
-        <v>0.17024981434063396</v>
+        <v>3.1966443849759999E-4</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="13"/>
-        <v>0.19046698556287703</v>
+        <v>-1.3054612742710001E-4</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="13"/>
-        <v>0.17360814896287499</v>
+        <v>-2.9512754926137698E-3</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="13"/>
-        <v>0.143874153179231</v>
+        <v>-3.463216521771E-4</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="13"/>
-        <v>9.9539800873637008E-2</v>
+        <v>-6.6509597671980008E-4</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="13"/>
-        <v>0.115469985340227</v>
+        <v>-1.1763326851558001E-3</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="13"/>
+        <v>-6.4877814787790006E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46">
+        <v>0.45191435477082198</v>
+      </c>
+      <c r="C46">
+        <v>0.40093927343520602</v>
+      </c>
+      <c r="D46">
+        <v>0.39481367223694902</v>
+      </c>
+      <c r="E46">
+        <v>0.34961750255361401</v>
+      </c>
+      <c r="F46">
+        <v>0.27892112580019501</v>
+      </c>
+      <c r="G46">
+        <v>0.23686471417295399</v>
+      </c>
+      <c r="H46">
+        <v>0.17986370641204899</v>
+      </c>
+      <c r="I46">
+        <v>0.15532759567260099</v>
+      </c>
+      <c r="J46">
+        <v>0.134506537493539</v>
+      </c>
+      <c r="K46">
+        <v>4.6163942497512003E-2</v>
+      </c>
+      <c r="L46">
+        <v>8.1632858704343992E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47">
+        <v>0.74347147090488996</v>
+      </c>
+      <c r="C47">
+        <v>0.67664885963832999</v>
+      </c>
+      <c r="D47">
+        <v>0.60458471447504802</v>
+      </c>
+      <c r="E47">
+        <v>0.56615290486784897</v>
+      </c>
+      <c r="F47">
+        <v>0.44917094014082898</v>
+      </c>
+      <c r="G47">
+        <v>0.42733169973583102</v>
+      </c>
+      <c r="H47">
+        <v>0.35347185537492398</v>
+      </c>
+      <c r="I47">
+        <v>0.29920174885183198</v>
+      </c>
+      <c r="J47">
+        <v>0.234046338367176</v>
+      </c>
+      <c r="K47">
+        <v>0.161633927837739</v>
+      </c>
+      <c r="L47">
+        <v>0.100092752284885</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <f>B47-B46</f>
+        <v>0.29155711613406798</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" ref="C48:L48" si="14">C47-C46</f>
+        <v>0.27570958620312397</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.209771042238099</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.21653540231423496</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.17024981434063396</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.19046698556287703</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.17360814896287499</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.143874153179231</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="14"/>
+        <v>9.9539800873637008E-2</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.115469985340227</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="14"/>
         <v>9.19294664144506E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49">
+        <v>0.62926086449320295</v>
+      </c>
+      <c r="C49">
+        <v>0.56452734299844698</v>
+      </c>
+      <c r="D49">
+        <v>0.48756915662745598</v>
+      </c>
+      <c r="E49">
+        <v>0.44220007652953203</v>
+      </c>
+      <c r="F49">
+        <v>0.380281329583601</v>
+      </c>
+      <c r="G49">
+        <v>0.29689071536895301</v>
+      </c>
+      <c r="H49">
+        <v>0.24428029391394501</v>
+      </c>
+      <c r="I49">
+        <v>0.17990400624188799</v>
+      </c>
+      <c r="J49">
+        <v>0.14125759184581799</v>
+      </c>
+      <c r="K49">
+        <v>7.1498922466292206E-2</v>
+      </c>
+      <c r="L49">
+        <v>2.0809028517324701E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50">
+        <v>0.62544226813109405</v>
+      </c>
+      <c r="C50">
+        <v>0.56298054581853596</v>
+      </c>
+      <c r="D50">
+        <v>0.48779750188010601</v>
+      </c>
+      <c r="E50">
+        <v>0.43817571320650001</v>
+      </c>
+      <c r="F50">
+        <v>0.36843010399027498</v>
+      </c>
+      <c r="G50">
+        <v>0.32027662815861702</v>
+      </c>
+      <c r="H50">
+        <v>0.250286748127103</v>
+      </c>
+      <c r="I50">
+        <v>0.191972420503876</v>
+      </c>
+      <c r="J50">
+        <v>0.12698800085855599</v>
+      </c>
+      <c r="K50">
+        <v>6.0382680201242697E-2</v>
+      </c>
+      <c r="L50">
+        <v>1.78164474893343E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <f>B50-B49</f>
+        <v>-3.8185963621089059E-3</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" ref="C51:L51" si="15">C50-C49</f>
+        <v>-1.5467971799110192E-3</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="15"/>
+        <v>2.2834525265003069E-4</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="15"/>
+        <v>-4.0243633230320208E-3</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.185122559332602E-2</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="15"/>
+        <v>2.338591278966401E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="15"/>
+        <v>6.0064542131579857E-3</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="15"/>
+        <v>1.2068414261988014E-2</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.4269590987261993E-2</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.1116242265049509E-2</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.9925810279904006E-4</v>
       </c>
     </row>
   </sheetData>

--- a/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
+++ b/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FCC8E-EBBE-4178-9D1D-DA3578C73253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648B7E0A-F01B-4836-8C67-22317CC51662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16110" windowHeight="12990" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
     <t>cat</t>
   </si>
   <si>
-    <t>bert-e2e-absa</t>
+    <t>bert</t>
   </si>
 </sst>
 </file>
@@ -625,9 +625,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
               <a:t>semeval-14-restaurant</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -635,8 +636,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2287825059101655"/>
-          <c:y val="0.18518518518518517"/>
+          <c:x val="0.24662399247966343"/>
+          <c:y val="7.5474628171478556E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -672,8 +673,135 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1.952861952861995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.4814814814814947E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.4276094276090072E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.5488215488214996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.9629629629630005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4074074074079732E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7542087542089864E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0404040404039832E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.3569023569024003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1447811447811394E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6043-499F-9629-02DA845F95F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="6"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$20</c:f>
@@ -802,7 +930,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$8</c:f>
@@ -931,7 +1059,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -1060,7 +1188,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -1188,135 +1316,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ctm-z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$13:$L$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6.6447368421052602E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9868421052631599E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5921052631578899E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.1973684210526297E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3947368421052598E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.2763157894736802E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2763157894736802E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.2763157894736802E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.7499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5526315789473698E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.4210526315789497E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AE99-4C9F-AD69-8BAFBFC13EA7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -1445,7 +1446,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -1580,6 +1581,157 @@
         </c:dLbls>
         <c:axId val="1057650367"/>
         <c:axId val="1057648927"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ctm-z</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="star"/>
+                  <c:size val="7"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$13:$L$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>6.6447368421052602E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.9868421052631599E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.5921052631578899E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.1973684210526297E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.3947368421052598E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.2763157894736802E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.2763157894736802E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.2763157894736802E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.7499999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3.5526315789473698E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3.4210526315789497E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-AE99-4C9F-AD69-8BAFBFC13EA7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1057650367"/>
@@ -1795,7 +1947,8 @@
         <c:crossAx val="1057650367"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1815,10 +1968,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.71006519796727541"/>
-          <c:y val="0.16449558936711858"/>
-          <c:w val="0.27460792799836192"/>
-          <c:h val="0.48851298760068784"/>
+          <c:x val="0.69528978425569132"/>
+          <c:y val="0.16449568803899509"/>
+          <c:w val="0.30471021574430857"/>
+          <c:h val="0.5910179977502813"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1834,7 +1987,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1911,8 +2064,8 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1922,7 +2075,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi Extra Light" panose="020B0204020104020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>semeval-14-restaurant</a:t>
             </a:r>
           </a:p>
@@ -1932,8 +2092,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24060283687943262"/>
-          <c:y val="0.19907407407407407"/>
+          <c:x val="0.2465130023640662"/>
+          <c:y val="6.8121797275340581E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1948,8 +2108,8 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1969,8 +2129,135 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$51:$L$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-3.8185963621089059E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5467971799110192E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2834525265003069E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.0243633230320208E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.185122559332602E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.338591278966401E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0064542131579857E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2068414261988014E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4269590987261993E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1116242265049509E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.9925810279904006E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E863-43C1-895A-85271B79B5BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="6"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$46</c:f>
@@ -2099,7 +2386,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$34</c:f>
@@ -2228,7 +2515,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -2357,7 +2644,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -2485,135 +2772,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ctm-z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$39:$L$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>8.1710379402921196E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.40879951627718E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9940234562889808E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8357177845268902E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6603038046268812E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.796565160422E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0620226527460899E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.9719856572993097E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.4799624989808204E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.3592839385610503E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.8319372054329705E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5110-4475-A781-55597FB72561}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -2742,7 +2902,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -2877,6 +3037,157 @@
         </c:dLbls>
         <c:axId val="1057650367"/>
         <c:axId val="1057648927"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ctm-z</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="star"/>
+                  <c:size val="7"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$39:$L$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>8.1710379402921196E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.40879951627718E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.9940234562889808E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.8357177845268902E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.6603038046268812E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.796565160422E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.0620226527460899E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.9719856572993097E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4.4799624989808204E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.3592839385610503E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3.8319372054329705E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-5110-4475-A781-55597FB72561}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1057650367"/>
@@ -3092,7 +3403,8 @@
         <c:crossAx val="1057650367"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -3112,10 +3424,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7071917384778259"/>
-          <c:y val="0.16454544513717739"/>
-          <c:w val="0.26844977946909276"/>
-          <c:h val="0.51562108674471863"/>
+          <c:x val="0.69537145622754615"/>
+          <c:y val="0.15660886139232597"/>
+          <c:w val="0.2991439567394501"/>
+          <c:h val="0.61085926759155107"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3131,7 +3443,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4279,15 +4591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>113180</xdr:rowOff>
+      <xdr:colOff>712374</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>588533</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>189380</xdr:rowOff>
+      <xdr:colOff>791839</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4316,16 +4628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>739588</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32017</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>173915</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:colOff>370019</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180415</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13620,8 +13932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FFB291-E4F5-4E4E-B884-4FDFA1C7897B}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
